--- a/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6968 +394,6245 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1075691483047467</v>
+        <v>0.1214761435707861</v>
       </c>
       <c r="C2">
-        <v>0.1160105115862144</v>
+        <v>0.131182788201902</v>
       </c>
       <c r="D2">
-        <v>0.1390940186600251</v>
+        <v>0.1554182453801852</v>
       </c>
       <c r="E2">
-        <v>0.1230940268286773</v>
+        <v>0.1402219926491045</v>
       </c>
       <c r="F2">
-        <v>0.1302955512900914</v>
+        <v>0.1471642436309495</v>
       </c>
       <c r="G2">
-        <v>0.1192941674914323</v>
+        <v>0.1372279432614302</v>
       </c>
       <c r="H2">
-        <v>0.1445389921782004</v>
-      </c>
-      <c r="I2">
-        <v>0.1201035836606124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1673086433056425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1136517594493084</v>
+        <v>0.1269743384555222</v>
       </c>
       <c r="C3">
-        <v>0.1281023004831774</v>
+        <v>0.1474042157950489</v>
       </c>
       <c r="D3">
-        <v>0.1182329860022688</v>
+        <v>0.1370803286796532</v>
       </c>
       <c r="E3">
-        <v>0.117755090013726</v>
+        <v>0.1348625365551046</v>
       </c>
       <c r="F3">
-        <v>0.1287416837588562</v>
+        <v>0.1515224721262414</v>
       </c>
       <c r="G3">
-        <v>0.1276246810271079</v>
+        <v>0.1420774738715827</v>
       </c>
       <c r="H3">
-        <v>0.1396354415334051</v>
-      </c>
-      <c r="I3">
-        <v>0.12625605773215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1600786345168471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1090880426464628</v>
+        <v>0.1248857587499175</v>
       </c>
       <c r="C4">
-        <v>0.1315883772340724</v>
+        <v>0.1519575138260535</v>
       </c>
       <c r="D4">
-        <v>0.1287828466048022</v>
+        <v>0.1493769799428717</v>
       </c>
       <c r="E4">
-        <v>0.1342291252798518</v>
+        <v>0.1530973001957465</v>
       </c>
       <c r="F4">
-        <v>0.1213554139553195</v>
+        <v>0.1371240282216981</v>
       </c>
       <c r="G4">
-        <v>0.112372649847833</v>
+        <v>0.1318435000638796</v>
       </c>
       <c r="H4">
-        <v>0.1317544707544845</v>
-      </c>
-      <c r="I4">
-        <v>0.1308290736771738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1517149189998331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1095735999338039</v>
+        <v>0.1214986830541538</v>
       </c>
       <c r="C5">
-        <v>0.1318376804260974</v>
+        <v>0.1524998515616584</v>
       </c>
       <c r="D5">
-        <v>0.1226784345407804</v>
+        <v>0.1442688273987743</v>
       </c>
       <c r="E5">
-        <v>0.1206894810348852</v>
+        <v>0.1411402110701129</v>
       </c>
       <c r="F5">
-        <v>0.1203067952849651</v>
+        <v>0.141042796213451</v>
       </c>
       <c r="G5">
-        <v>0.108302389809651</v>
+        <v>0.1275685837133779</v>
       </c>
       <c r="H5">
-        <v>0.1489497616062659</v>
-      </c>
-      <c r="I5">
-        <v>0.1376618573635512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.1719810469884717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09571889974681147</v>
+        <v>0.1082935644215424</v>
       </c>
       <c r="C6">
-        <v>0.1247022951442509</v>
+        <v>0.1419865162815601</v>
       </c>
       <c r="D6">
-        <v>0.1281326788569324</v>
+        <v>0.1433235746435984</v>
       </c>
       <c r="E6">
-        <v>0.1319669311578889</v>
+        <v>0.1538110192988906</v>
       </c>
       <c r="F6">
-        <v>0.1199516336554182</v>
+        <v>0.1358630424454772</v>
       </c>
       <c r="G6">
-        <v>0.1052024210912686</v>
+        <v>0.1194303651380079</v>
       </c>
       <c r="H6">
-        <v>0.1663186127341844</v>
-      </c>
-      <c r="I6">
-        <v>0.1280065276132453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1972919177709233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1343820117424898</v>
+        <v>0.1550584656005268</v>
       </c>
       <c r="C7">
-        <v>0.1250251997371897</v>
+        <v>0.1395016260338477</v>
       </c>
       <c r="D7">
-        <v>0.1239349245081784</v>
+        <v>0.1404244072527396</v>
       </c>
       <c r="E7">
-        <v>0.1247707890033676</v>
+        <v>0.1399487060693996</v>
       </c>
       <c r="F7">
-        <v>0.1190973762297813</v>
+        <v>0.1353814181805033</v>
       </c>
       <c r="G7">
-        <v>0.1335783112007869</v>
+        <v>0.1534632262285309</v>
       </c>
       <c r="H7">
-        <v>0.1174588058012046</v>
-      </c>
-      <c r="I7">
-        <v>0.1217525817770017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1362221506344522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08861752692256318</v>
+        <v>0.1008467797162772</v>
       </c>
       <c r="C8">
-        <v>0.1595316341577196</v>
+        <v>0.1857533024174346</v>
       </c>
       <c r="D8">
-        <v>0.05751406541869959</v>
+        <v>0.0654548447433411</v>
       </c>
       <c r="E8">
-        <v>0.09697735263345814</v>
+        <v>0.1164760571845093</v>
       </c>
       <c r="F8">
-        <v>0.2393171567754349</v>
+        <v>0.2608926419138025</v>
       </c>
       <c r="G8">
-        <v>0.06851050737790254</v>
+        <v>0.07143408783880409</v>
       </c>
       <c r="H8">
-        <v>0.1728557039930303</v>
-      </c>
-      <c r="I8">
-        <v>0.1166760527211917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1991422861858311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08586597032049728</v>
+        <v>0.09932378849177133</v>
       </c>
       <c r="C9">
-        <v>0.1359222604105517</v>
+        <v>0.157251948519534</v>
       </c>
       <c r="D9">
-        <v>0.125748975523783</v>
+        <v>0.1446940402784097</v>
       </c>
       <c r="E9">
-        <v>0.1128861276915466</v>
+        <v>0.1289561339749525</v>
       </c>
       <c r="F9">
-        <v>0.132476758706948</v>
+        <v>0.149638433203796</v>
       </c>
       <c r="G9">
-        <v>0.1246072622248607</v>
+        <v>0.1426124262402326</v>
       </c>
       <c r="H9">
-        <v>0.1537039485782289</v>
-      </c>
-      <c r="I9">
-        <v>0.1287886965435839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1775232292913038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06876350184718039</v>
+        <v>0.07563719245238469</v>
       </c>
       <c r="C10">
-        <v>0.1393947004653097</v>
+        <v>0.155097869710758</v>
       </c>
       <c r="D10">
-        <v>0.1209987766527355</v>
+        <v>0.1305112061181798</v>
       </c>
       <c r="E10">
-        <v>0.1302239156707966</v>
+        <v>0.1568248661289018</v>
       </c>
       <c r="F10">
-        <v>0.1622563540333952</v>
+        <v>0.1870768737216599</v>
       </c>
       <c r="G10">
-        <v>0.0910554059529247</v>
+        <v>0.1024543391303949</v>
       </c>
       <c r="H10">
-        <v>0.1710415046961815</v>
-      </c>
-      <c r="I10">
-        <v>0.1162658406814764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1923976527377209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1583911407627699</v>
+        <v>0.1890894462880472</v>
       </c>
       <c r="C11">
-        <v>0.143301254472362</v>
+        <v>0.1741201012880413</v>
       </c>
       <c r="D11">
-        <v>0.09481841433026239</v>
+        <v>0.1224767214492462</v>
       </c>
       <c r="E11">
-        <v>0.1152099964101035</v>
+        <v>0.1422769642576204</v>
       </c>
       <c r="F11">
-        <v>0.03745030999664228</v>
+        <v>0.04668098330453636</v>
       </c>
       <c r="G11">
-        <v>0.1735137265438519</v>
+        <v>0.210428933793142</v>
       </c>
       <c r="H11">
-        <v>0.09706304712657965</v>
-      </c>
-      <c r="I11">
-        <v>0.1802521103574283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1149268496193666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07911946477513594</v>
+        <v>0.09098787382507759</v>
       </c>
       <c r="C12">
-        <v>0.1321630550132078</v>
+        <v>0.1536329542365081</v>
       </c>
       <c r="D12">
-        <v>0.1220457789803178</v>
+        <v>0.1392628930645693</v>
       </c>
       <c r="E12">
-        <v>0.1303191601308029</v>
+        <v>0.1489379455439429</v>
       </c>
       <c r="F12">
-        <v>0.1318505077003697</v>
+        <v>0.1581362155890543</v>
       </c>
       <c r="G12">
-        <v>0.1172695667376055</v>
+        <v>0.13568505796766</v>
       </c>
       <c r="H12">
-        <v>0.1449531899105163</v>
-      </c>
-      <c r="I12">
-        <v>0.1422792767520439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.173357059773188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1614262205011287</v>
+        <v>0.1829752673471405</v>
       </c>
       <c r="C13">
-        <v>0.1082825526884676</v>
+        <v>0.1234916837149481</v>
       </c>
       <c r="D13">
-        <v>0.1350137939797094</v>
+        <v>0.1502083131022116</v>
       </c>
       <c r="E13">
-        <v>0.1341570435992342</v>
+        <v>0.1509088622275566</v>
       </c>
       <c r="F13">
-        <v>0.08288199098457548</v>
+        <v>0.09670667861777707</v>
       </c>
       <c r="G13">
-        <v>0.1412992713264444</v>
+        <v>0.1635645535370883</v>
       </c>
       <c r="H13">
-        <v>0.1160610501143218</v>
-      </c>
-      <c r="I13">
-        <v>0.1208780768061185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1321446414532779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08479764793128795</v>
+        <v>0.09779283926298199</v>
       </c>
       <c r="C14">
-        <v>0.1563827841903064</v>
+        <v>0.1844281020982292</v>
       </c>
       <c r="D14">
-        <v>0.112610040162193</v>
+        <v>0.1279529826930286</v>
       </c>
       <c r="E14">
-        <v>0.1220850046902441</v>
+        <v>0.1425602341274918</v>
       </c>
       <c r="F14">
-        <v>0.1791684012998316</v>
+        <v>0.2058183862626535</v>
       </c>
       <c r="G14">
-        <v>0.08078945967549925</v>
+        <v>0.08886723993355795</v>
       </c>
       <c r="H14">
-        <v>0.1434986369504069</v>
-      </c>
-      <c r="I14">
-        <v>0.1206680251002307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1525802156220571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09258887198449806</v>
+        <v>0.111674521754508</v>
       </c>
       <c r="C15">
-        <v>0.1537811346066332</v>
+        <v>0.1769824729502197</v>
       </c>
       <c r="D15">
-        <v>0.1009089988905052</v>
+        <v>0.1127418484700716</v>
       </c>
       <c r="E15">
-        <v>0.1060133506655826</v>
+        <v>0.1196934769707291</v>
       </c>
       <c r="F15">
-        <v>0.161750727828425</v>
+        <v>0.1917561909259794</v>
       </c>
       <c r="G15">
-        <v>0.0834282274497944</v>
+        <v>0.09750514277155954</v>
       </c>
       <c r="H15">
-        <v>0.1730388604188813</v>
-      </c>
-      <c r="I15">
-        <v>0.1284898281556803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1896463461569327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08511146292829791</v>
+        <v>0.09810263193491425</v>
       </c>
       <c r="C16">
-        <v>0.1426012927254621</v>
+        <v>0.1659949649343425</v>
       </c>
       <c r="D16">
-        <v>0.1095948145314161</v>
+        <v>0.1250269043101884</v>
       </c>
       <c r="E16">
-        <v>0.1204658683459502</v>
+        <v>0.1393049340270014</v>
       </c>
       <c r="F16">
-        <v>0.1465393607948416</v>
+        <v>0.1686582562281917</v>
       </c>
       <c r="G16">
-        <v>0.09974656822069117</v>
+        <v>0.1142316987307004</v>
       </c>
       <c r="H16">
-        <v>0.1602991451890897</v>
-      </c>
-      <c r="I16">
-        <v>0.1356414872642513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1886806098346613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08355994930088868</v>
+        <v>0.09298928138032631</v>
       </c>
       <c r="C17">
-        <v>0.1494554415591387</v>
+        <v>0.1692192540299994</v>
       </c>
       <c r="D17">
-        <v>0.100220340427861</v>
+        <v>0.113132885244539</v>
       </c>
       <c r="E17">
-        <v>0.1139064853961863</v>
+        <v>0.1279010806817389</v>
       </c>
       <c r="F17">
-        <v>0.2092391561450609</v>
+        <v>0.2359623921922422</v>
       </c>
       <c r="G17">
-        <v>0.08864235623730402</v>
+        <v>0.0995313862235884</v>
       </c>
       <c r="H17">
-        <v>0.1449368690169475</v>
-      </c>
-      <c r="I17">
-        <v>0.110039401916613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.161263720247566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1010076984369174</v>
+        <v>0.1172759217613119</v>
       </c>
       <c r="C18">
-        <v>0.1506037796401466</v>
+        <v>0.167847921528158</v>
       </c>
       <c r="D18">
-        <v>0.1170074980722393</v>
+        <v>0.1329883216963997</v>
       </c>
       <c r="E18">
-        <v>0.1220586543936309</v>
+        <v>0.139498366221492</v>
       </c>
       <c r="F18">
-        <v>0.1538657050718389</v>
+        <v>0.1791068521258313</v>
       </c>
       <c r="G18">
-        <v>0.09566624331874472</v>
+        <v>0.1100595495351904</v>
       </c>
       <c r="H18">
-        <v>0.1328749301091109</v>
-      </c>
-      <c r="I18">
-        <v>0.1269154909573712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1532230671316168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1495595520136865</v>
+        <v>0.1747143179212459</v>
       </c>
       <c r="C19">
-        <v>0.1197303582647353</v>
+        <v>0.1442972085471219</v>
       </c>
       <c r="D19">
-        <v>0.1217882708902048</v>
+        <v>0.1386902118703811</v>
       </c>
       <c r="E19">
-        <v>0.1261857319032028</v>
+        <v>0.1439980163563137</v>
       </c>
       <c r="F19">
-        <v>0.09605095773261596</v>
+        <v>0.113120194166455</v>
       </c>
       <c r="G19">
-        <v>0.1410933310420037</v>
+        <v>0.1667957692901212</v>
       </c>
       <c r="H19">
-        <v>0.1034899489970632</v>
-      </c>
-      <c r="I19">
-        <v>0.1421018491564877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1183842818483611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09474121442868677</v>
+        <v>0.1128222130844612</v>
       </c>
       <c r="C20">
-        <v>0.1465561329543317</v>
+        <v>0.1681435686636054</v>
       </c>
       <c r="D20">
-        <v>0.10687990886068</v>
+        <v>0.1237985627302984</v>
       </c>
       <c r="E20">
-        <v>0.1141086493943734</v>
+        <v>0.1319735731130075</v>
       </c>
       <c r="F20">
-        <v>0.1397401635152704</v>
+        <v>0.1608664810568368</v>
       </c>
       <c r="G20">
-        <v>0.1174879542635787</v>
+        <v>0.1337151724736218</v>
       </c>
       <c r="H20">
-        <v>0.1449121176432041</v>
-      </c>
-      <c r="I20">
-        <v>0.1355738589398749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1686804288781688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.09771026679219372</v>
+        <v>0.110592662398248</v>
       </c>
       <c r="C21">
-        <v>0.1483471601699477</v>
+        <v>0.1719992419232457</v>
       </c>
       <c r="D21">
-        <v>0.1034337208278831</v>
+        <v>0.1161213978541327</v>
       </c>
       <c r="E21">
-        <v>0.1189511428390424</v>
+        <v>0.1323483271322168</v>
       </c>
       <c r="F21">
-        <v>0.1447711316577818</v>
+        <v>0.1644179112764702</v>
       </c>
       <c r="G21">
-        <v>0.1052539673294555</v>
+        <v>0.1223952433347075</v>
       </c>
       <c r="H21">
-        <v>0.1579664731453625</v>
-      </c>
-      <c r="I21">
-        <v>0.1235661372383333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.182125216080979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1001373614366547</v>
+        <v>0.1138353362429829</v>
       </c>
       <c r="C22">
-        <v>0.1310707505123126</v>
+        <v>0.1496339092600463</v>
       </c>
       <c r="D22">
-        <v>0.1274041599181473</v>
+        <v>0.1460454776802278</v>
       </c>
       <c r="E22">
-        <v>0.127436698271446</v>
+        <v>0.1494434525443999</v>
       </c>
       <c r="F22">
-        <v>0.1228169228284768</v>
+        <v>0.1458717803998064</v>
       </c>
       <c r="G22">
-        <v>0.1155312886907912</v>
+        <v>0.1311960582391416</v>
       </c>
       <c r="H22">
-        <v>0.142990387916329</v>
-      </c>
-      <c r="I22">
-        <v>0.1326124304258426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.163973985633395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08537783427521636</v>
+        <v>0.09278982483829473</v>
       </c>
       <c r="C23">
-        <v>0.1368549908019173</v>
+        <v>0.1654293926517371</v>
       </c>
       <c r="D23">
-        <v>0.08723784726089129</v>
+        <v>0.1008980258328193</v>
       </c>
       <c r="E23">
-        <v>0.1073699448337636</v>
+        <v>0.1319469329143327</v>
       </c>
       <c r="F23">
-        <v>0.1895890646741043</v>
+        <v>0.1969384070936391</v>
       </c>
       <c r="G23">
-        <v>0.08795718391494772</v>
+        <v>0.09782967392103468</v>
       </c>
       <c r="H23">
-        <v>0.1755281591104701</v>
-      </c>
-      <c r="I23">
-        <v>0.1300849751286892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2141677427481424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09959717883107452</v>
+        <v>0.1117835846276412</v>
       </c>
       <c r="C24">
-        <v>0.1380635857979726</v>
+        <v>0.1584691027375446</v>
       </c>
       <c r="D24">
-        <v>0.1172785519547446</v>
+        <v>0.1354527807139645</v>
       </c>
       <c r="E24">
-        <v>0.1209661934377605</v>
+        <v>0.1387857094808397</v>
       </c>
       <c r="F24">
-        <v>0.132117282610229</v>
+        <v>0.1538708371448966</v>
       </c>
       <c r="G24">
-        <v>0.0973404454651484</v>
+        <v>0.1140095614782499</v>
       </c>
       <c r="H24">
-        <v>0.1628516770686418</v>
-      </c>
-      <c r="I24">
-        <v>0.1317850848344285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1876284238168633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09284059655448199</v>
+        <v>0.1017549851531133</v>
       </c>
       <c r="C25">
-        <v>0.1504053754211873</v>
+        <v>0.1668891854376229</v>
       </c>
       <c r="D25">
-        <v>0.1102338346893226</v>
+        <v>0.1271498513678602</v>
       </c>
       <c r="E25">
-        <v>0.1177976958948619</v>
+        <v>0.13746676280269</v>
       </c>
       <c r="F25">
-        <v>0.1528213566873942</v>
+        <v>0.1749376421989983</v>
       </c>
       <c r="G25">
-        <v>0.1007280064219044</v>
+        <v>0.1147256126999989</v>
       </c>
       <c r="H25">
-        <v>0.1545381529419046</v>
-      </c>
-      <c r="I25">
-        <v>0.1206349813889429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1770759603397166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1464521197078243</v>
+        <v>0.1632623042497567</v>
       </c>
       <c r="C26">
-        <v>0.1273121514698235</v>
+        <v>0.1421532772861733</v>
       </c>
       <c r="D26">
-        <v>0.1284446016805432</v>
+        <v>0.1458399685968438</v>
       </c>
       <c r="E26">
-        <v>0.1254166669876399</v>
+        <v>0.1423213941857904</v>
       </c>
       <c r="F26">
-        <v>0.1061555244457623</v>
+        <v>0.1187651087376934</v>
       </c>
       <c r="G26">
-        <v>0.158005647675955</v>
+        <v>0.1755011013224524</v>
       </c>
       <c r="H26">
-        <v>0.09694710752669297</v>
-      </c>
-      <c r="I26">
-        <v>0.1112661805057591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.1121568456212901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08908719539690518</v>
+        <v>0.1047242093061025</v>
       </c>
       <c r="C27">
-        <v>0.127755780291412</v>
+        <v>0.149893436193767</v>
       </c>
       <c r="D27">
-        <v>0.1166450538413367</v>
+        <v>0.1369604159724696</v>
       </c>
       <c r="E27">
-        <v>0.12350526845881</v>
+        <v>0.1444903165098781</v>
       </c>
       <c r="F27">
-        <v>0.1538629530869971</v>
+        <v>0.1791366458316438</v>
       </c>
       <c r="G27">
-        <v>0.1038128408970498</v>
+        <v>0.1201774490837519</v>
       </c>
       <c r="H27">
-        <v>0.1387252525740045</v>
-      </c>
-      <c r="I27">
-        <v>0.1466056554534847</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1646175271023869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1579512989132886</v>
+        <v>0.1872361613437196</v>
       </c>
       <c r="C28">
-        <v>0.1465814883039447</v>
+        <v>0.1722817290257557</v>
       </c>
       <c r="D28">
-        <v>0.1066926202828719</v>
+        <v>0.1287535778714929</v>
       </c>
       <c r="E28">
-        <v>0.1375377081242762</v>
+        <v>0.1628207276051871</v>
       </c>
       <c r="F28">
-        <v>0.04638033383399247</v>
+        <v>0.05562757719068952</v>
       </c>
       <c r="G28">
-        <v>0.1363032996464569</v>
+        <v>0.1612265563798148</v>
       </c>
       <c r="H28">
-        <v>0.1129571208699941</v>
-      </c>
-      <c r="I28">
-        <v>0.1555961300251751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1320536705833403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.08433906537430008</v>
+        <v>0.09966711913914617</v>
       </c>
       <c r="C29">
-        <v>0.1373527344912103</v>
+        <v>0.1566396656944913</v>
       </c>
       <c r="D29">
-        <v>0.1267870303226374</v>
+        <v>0.1479151014554775</v>
       </c>
       <c r="E29">
-        <v>0.1205944174758939</v>
+        <v>0.139833858529665</v>
       </c>
       <c r="F29">
-        <v>0.1236944448338493</v>
+        <v>0.1477511298561446</v>
       </c>
       <c r="G29">
-        <v>0.1050482614244019</v>
+        <v>0.1242922143434664</v>
       </c>
       <c r="H29">
-        <v>0.1598937421563704</v>
-      </c>
-      <c r="I29">
-        <v>0.1422903039213367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.183900910981609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1302840828919107</v>
+        <v>0.148389829016005</v>
       </c>
       <c r="C30">
-        <v>0.1201786823545288</v>
+        <v>0.1394807120128252</v>
       </c>
       <c r="D30">
-        <v>0.129376136901846</v>
+        <v>0.148112495714192</v>
       </c>
       <c r="E30">
-        <v>0.1280005860848735</v>
+        <v>0.1459543635064163</v>
       </c>
       <c r="F30">
-        <v>0.116747968684982</v>
+        <v>0.1321624471873414</v>
       </c>
       <c r="G30">
-        <v>0.1258730219919338</v>
+        <v>0.144237109418849</v>
       </c>
       <c r="H30">
-        <v>0.1254371090099408</v>
-      </c>
-      <c r="I30">
-        <v>0.1241024120799844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.141663043144371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.09482179834918782</v>
+        <v>0.1055699724083236</v>
       </c>
       <c r="C31">
-        <v>0.1556602567565096</v>
+        <v>0.1827939603401103</v>
       </c>
       <c r="D31">
-        <v>0.1139337420348874</v>
+        <v>0.132209483945789</v>
       </c>
       <c r="E31">
-        <v>0.1154422897144752</v>
+        <v>0.1339419835437111</v>
       </c>
       <c r="F31">
-        <v>0.1241496993966709</v>
+        <v>0.1416527790194624</v>
       </c>
       <c r="G31">
-        <v>0.09545204365195971</v>
+        <v>0.1125743331468385</v>
       </c>
       <c r="H31">
-        <v>0.1642202842619943</v>
-      </c>
-      <c r="I31">
-        <v>0.1363198858343151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1912574875957652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.09261624939278816</v>
+        <v>0.1062230542198772</v>
       </c>
       <c r="C32">
-        <v>0.1457934523271689</v>
+        <v>0.1697126330820641</v>
       </c>
       <c r="D32">
-        <v>0.08533548174007022</v>
+        <v>0.09351708073503567</v>
       </c>
       <c r="E32">
-        <v>0.124935687856448</v>
+        <v>0.139112965781631</v>
       </c>
       <c r="F32">
-        <v>0.1837852995908315</v>
+        <v>0.209739017750879</v>
       </c>
       <c r="G32">
-        <v>0.08597813772106555</v>
+        <v>0.09794371141453219</v>
       </c>
       <c r="H32">
-        <v>0.1602230623336808</v>
-      </c>
-      <c r="I32">
-        <v>0.1213326290379469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1837515370159808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1162780703888669</v>
+        <v>0.1346164460749166</v>
       </c>
       <c r="C33">
-        <v>0.1262106841299174</v>
+        <v>0.1467928500146292</v>
       </c>
       <c r="D33">
-        <v>0.1171892669979254</v>
+        <v>0.1344784605059289</v>
       </c>
       <c r="E33">
-        <v>0.1208181613179459</v>
+        <v>0.1398986527548788</v>
       </c>
       <c r="F33">
-        <v>0.1204772136498957</v>
+        <v>0.1367498115049337</v>
       </c>
       <c r="G33">
-        <v>0.1208052359174998</v>
+        <v>0.1373961305269452</v>
       </c>
       <c r="H33">
-        <v>0.1458963934217851</v>
-      </c>
-      <c r="I33">
-        <v>0.1323249741761637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1700676486177674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.08291048795843625</v>
+        <v>0.09722083954221185</v>
       </c>
       <c r="C34">
-        <v>0.1435629407495611</v>
+        <v>0.1632526054201831</v>
       </c>
       <c r="D34">
-        <v>0.1163720068797566</v>
+        <v>0.1329205104271114</v>
       </c>
       <c r="E34">
-        <v>0.1027910695772459</v>
+        <v>0.1174522087859627</v>
       </c>
       <c r="F34">
-        <v>0.1660255112208662</v>
+        <v>0.1890439196829939</v>
       </c>
       <c r="G34">
-        <v>0.1021123922297024</v>
+        <v>0.1193884720401227</v>
       </c>
       <c r="H34">
-        <v>0.1554088488625791</v>
-      </c>
-      <c r="I34">
-        <v>0.1308167425218522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1807214441014145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.08332464478568764</v>
+        <v>0.09828984750064164</v>
       </c>
       <c r="C35">
-        <v>0.1511987114656243</v>
+        <v>0.1723430163519817</v>
       </c>
       <c r="D35">
-        <v>0.1096963814374762</v>
+        <v>0.1279632944113121</v>
       </c>
       <c r="E35">
-        <v>0.1055080184050153</v>
+        <v>0.1240751481997283</v>
       </c>
       <c r="F35">
-        <v>0.1521453909981874</v>
+        <v>0.1781034355203693</v>
       </c>
       <c r="G35">
-        <v>0.1110797613962059</v>
+        <v>0.1264805654767327</v>
       </c>
       <c r="H35">
-        <v>0.146868287464222</v>
-      </c>
-      <c r="I35">
-        <v>0.1401788040475812</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1727446925392342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1122233083934707</v>
+        <v>0.1256372811060121</v>
       </c>
       <c r="C36">
-        <v>0.1251071255283847</v>
+        <v>0.1427520438503985</v>
       </c>
       <c r="D36">
-        <v>0.1278785592052774</v>
+        <v>0.1464109117418084</v>
       </c>
       <c r="E36">
-        <v>0.1396245026873136</v>
+        <v>0.163889699422957</v>
       </c>
       <c r="F36">
-        <v>0.1168902886972378</v>
+        <v>0.1330199114442609</v>
       </c>
       <c r="G36">
-        <v>0.1134673091944093</v>
+        <v>0.1294530759465385</v>
       </c>
       <c r="H36">
-        <v>0.1379438787723119</v>
-      </c>
-      <c r="I36">
-        <v>0.1268650275215944</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1588370764880247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.148847545175585</v>
+        <v>0.1719724659115662</v>
       </c>
       <c r="C37">
-        <v>0.1242126924900717</v>
+        <v>0.1401705892434602</v>
       </c>
       <c r="D37">
-        <v>0.1257037671265278</v>
+        <v>0.1411821615962402</v>
       </c>
       <c r="E37">
-        <v>0.1201369583148376</v>
+        <v>0.1343292744682242</v>
       </c>
       <c r="F37">
-        <v>0.1099949247365737</v>
+        <v>0.1232670311335167</v>
       </c>
       <c r="G37">
-        <v>0.1524850608819301</v>
+        <v>0.1734145505443539</v>
       </c>
       <c r="H37">
-        <v>0.1026571638808042</v>
-      </c>
-      <c r="I37">
-        <v>0.1159618873936698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1156639271026386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1502705499183871</v>
+        <v>0.1727469351013831</v>
       </c>
       <c r="C38">
-        <v>0.1163834091943917</v>
+        <v>0.1315994856223998</v>
       </c>
       <c r="D38">
-        <v>0.1242345887975464</v>
+        <v>0.1391586874107627</v>
       </c>
       <c r="E38">
-        <v>0.1219351042747032</v>
+        <v>0.1358755504149709</v>
       </c>
       <c r="F38">
-        <v>0.1159703870976568</v>
+        <v>0.1310172666754358</v>
       </c>
       <c r="G38">
-        <v>0.1602874184930922</v>
+        <v>0.1806050063501561</v>
       </c>
       <c r="H38">
-        <v>0.09559481023002404</v>
-      </c>
-      <c r="I38">
-        <v>0.1153237319941987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1089970684248915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1509518978670432</v>
+        <v>0.1720519335102643</v>
       </c>
       <c r="C39">
-        <v>0.1232730755043421</v>
+        <v>0.1403820982210902</v>
       </c>
       <c r="D39">
-        <v>0.117540164807509</v>
+        <v>0.1361409614173751</v>
       </c>
       <c r="E39">
-        <v>0.1324751812838323</v>
+        <v>0.1523935464853424</v>
       </c>
       <c r="F39">
-        <v>0.08913075088766327</v>
+        <v>0.1021734573665726</v>
       </c>
       <c r="G39">
-        <v>0.1389682768896745</v>
+        <v>0.1612077830709947</v>
       </c>
       <c r="H39">
-        <v>0.1175740372886708</v>
-      </c>
-      <c r="I39">
-        <v>0.1300866154712649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1356502199283607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.09364610757529518</v>
+        <v>0.1068351978915451</v>
       </c>
       <c r="C40">
-        <v>0.1274139492295384</v>
+        <v>0.1495601394128817</v>
       </c>
       <c r="D40">
-        <v>0.1328348303708894</v>
+        <v>0.15374392769615</v>
       </c>
       <c r="E40">
-        <v>0.1285129557083545</v>
+        <v>0.1492463112164263</v>
       </c>
       <c r="F40">
-        <v>0.1218297614047339</v>
+        <v>0.1407637639215521</v>
       </c>
       <c r="G40">
-        <v>0.108944526464747</v>
+        <v>0.1246366521419031</v>
       </c>
       <c r="H40">
-        <v>0.1493087139083049</v>
-      </c>
-      <c r="I40">
-        <v>0.1375091553381369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1752140077195417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.08211881154182953</v>
+        <v>0.09557459835545191</v>
       </c>
       <c r="C41">
-        <v>0.15107869196728</v>
+        <v>0.1721385480146577</v>
       </c>
       <c r="D41">
-        <v>0.07324668652757005</v>
+        <v>0.08710129301589643</v>
       </c>
       <c r="E41">
-        <v>0.0900417729190635</v>
+        <v>0.1056486264869123</v>
       </c>
       <c r="F41">
-        <v>0.2258028043796891</v>
+        <v>0.2599056004835565</v>
       </c>
       <c r="G41">
-        <v>0.07518927606800445</v>
+        <v>0.08627505549716463</v>
       </c>
       <c r="H41">
-        <v>0.1650370681143192</v>
-      </c>
-      <c r="I41">
-        <v>0.1374848884822442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1933562781463603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1566450229582114</v>
+        <v>0.177574034217485</v>
       </c>
       <c r="C42">
-        <v>0.1025613262246181</v>
+        <v>0.1184684485445858</v>
       </c>
       <c r="D42">
-        <v>0.1425218791802211</v>
+        <v>0.1589025658158326</v>
       </c>
       <c r="E42">
-        <v>0.1313011053010794</v>
+        <v>0.1466208334558525</v>
       </c>
       <c r="F42">
-        <v>0.09456276178986964</v>
+        <v>0.1073032870905854</v>
       </c>
       <c r="G42">
-        <v>0.158956635576914</v>
+        <v>0.181719552923319</v>
       </c>
       <c r="H42">
-        <v>0.09759454971267169</v>
-      </c>
-      <c r="I42">
-        <v>0.1158567192564147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1094112779523397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.07754493780205968</v>
+        <v>0.09025050559413138</v>
       </c>
       <c r="C43">
-        <v>0.1251804665016463</v>
+        <v>0.1463207937360046</v>
       </c>
       <c r="D43">
-        <v>0.115999346663539</v>
+        <v>0.1325307288074518</v>
       </c>
       <c r="E43">
-        <v>0.1180674324548438</v>
+        <v>0.1366495964212961</v>
       </c>
       <c r="F43">
-        <v>0.1571641335814924</v>
+        <v>0.1810186307447132</v>
       </c>
       <c r="G43">
-        <v>0.09389429936393721</v>
+        <v>0.1114721050044867</v>
       </c>
       <c r="H43">
-        <v>0.174958610039482</v>
-      </c>
-      <c r="I43">
-        <v>0.1371907735929997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.2017576396919161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.09092953089561007</v>
+        <v>0.1040664264394179</v>
       </c>
       <c r="C44">
-        <v>0.1601233201905009</v>
+        <v>0.1833306932895102</v>
       </c>
       <c r="D44">
-        <v>0.07025687202746123</v>
+        <v>0.08326589248919948</v>
       </c>
       <c r="E44">
-        <v>0.09389419232997506</v>
+        <v>0.1097295715619375</v>
       </c>
       <c r="F44">
-        <v>0.2201267844883602</v>
+        <v>0.2513603297638961</v>
       </c>
       <c r="G44">
-        <v>0.08076992335092904</v>
+        <v>0.09561778755793228</v>
       </c>
       <c r="H44">
-        <v>0.1450342186261776</v>
-      </c>
-      <c r="I44">
-        <v>0.1388651580909859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1726292988981065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.08940843945102046</v>
+        <v>0.1038687647616036</v>
       </c>
       <c r="C45">
-        <v>0.1460103267456851</v>
+        <v>0.1684975932043075</v>
       </c>
       <c r="D45">
-        <v>0.1159284408476243</v>
+        <v>0.1335489946908004</v>
       </c>
       <c r="E45">
-        <v>0.1242092748236693</v>
+        <v>0.1448853024612197</v>
       </c>
       <c r="F45">
-        <v>0.1279100585863073</v>
+        <v>0.1483427765022877</v>
       </c>
       <c r="G45">
-        <v>0.1052528838834994</v>
+        <v>0.1235887722673433</v>
       </c>
       <c r="H45">
-        <v>0.1515909257789632</v>
-      </c>
-      <c r="I45">
-        <v>0.1396896498832309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1772677961124377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.100396985571154</v>
+        <v>0.1124391200834164</v>
       </c>
       <c r="C46">
-        <v>0.1463635759569644</v>
+        <v>0.1654302632217947</v>
       </c>
       <c r="D46">
-        <v>0.1288128169169647</v>
+        <v>0.1493311215307304</v>
       </c>
       <c r="E46">
-        <v>0.1240171966653948</v>
+        <v>0.1423960012921333</v>
       </c>
       <c r="F46">
-        <v>0.1318843783298397</v>
+        <v>0.1482109435482783</v>
       </c>
       <c r="G46">
-        <v>0.1039875048277527</v>
+        <v>0.1183826197282526</v>
       </c>
       <c r="H46">
-        <v>0.1453364776328957</v>
-      </c>
-      <c r="I46">
-        <v>0.1192010640990339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1638099305953943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.09075009188100648</v>
+        <v>0.116085441396602</v>
       </c>
       <c r="C47">
-        <v>0.1694946861455175</v>
+        <v>0.1950674845279197</v>
       </c>
       <c r="D47">
-        <v>0.1098357419997326</v>
+        <v>0.1251525021127177</v>
       </c>
       <c r="E47">
-        <v>0.1320438366842717</v>
+        <v>0.1520241203821376</v>
       </c>
       <c r="F47">
-        <v>0.1107318877712749</v>
+        <v>0.1216489150897422</v>
       </c>
       <c r="G47">
-        <v>0.09663746032566757</v>
+        <v>0.1196604040786787</v>
       </c>
       <c r="H47">
-        <v>0.1454692556150056</v>
-      </c>
-      <c r="I47">
-        <v>0.1450370395775235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1703611324122022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.07235131016529979</v>
+        <v>0.08519653343114528</v>
       </c>
       <c r="C48">
-        <v>0.1383082224377566</v>
+        <v>0.1611165541673072</v>
       </c>
       <c r="D48">
-        <v>0.1178573325358473</v>
+        <v>0.1376286399525759</v>
       </c>
       <c r="E48">
-        <v>0.1241093984644372</v>
+        <v>0.1453425157353531</v>
       </c>
       <c r="F48">
-        <v>0.1780461649972099</v>
+        <v>0.2048708210310809</v>
       </c>
       <c r="G48">
-        <v>0.08324059444050497</v>
+        <v>0.09508253378215231</v>
       </c>
       <c r="H48">
-        <v>0.1502094938476335</v>
-      </c>
-      <c r="I48">
-        <v>0.1358774831113108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1707624019003853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0882593203543848</v>
+        <v>0.1034359397117323</v>
       </c>
       <c r="C49">
-        <v>0.1398913796398026</v>
+        <v>0.1616118614132694</v>
       </c>
       <c r="D49">
-        <v>0.1126560201463654</v>
+        <v>0.1306325709665981</v>
       </c>
       <c r="E49">
-        <v>0.1177464829467326</v>
+        <v>0.1360683507489171</v>
       </c>
       <c r="F49">
-        <v>0.1434993696147348</v>
+        <v>0.1667652154505803</v>
       </c>
       <c r="G49">
-        <v>0.1092589939382784</v>
+        <v>0.123537108227114</v>
       </c>
       <c r="H49">
-        <v>0.1549038107418133</v>
-      </c>
-      <c r="I49">
-        <v>0.1337846226178881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1779489534817888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.09794940748575626</v>
+        <v>0.1108237269531866</v>
       </c>
       <c r="C50">
-        <v>0.1377896051767961</v>
+        <v>0.1573522576414175</v>
       </c>
       <c r="D50">
-        <v>0.1175517366296163</v>
+        <v>0.1355421951319326</v>
       </c>
       <c r="E50">
-        <v>0.1239804467024076</v>
+        <v>0.1420450012184795</v>
       </c>
       <c r="F50">
-        <v>0.1449834894798355</v>
+        <v>0.1658014803785587</v>
       </c>
       <c r="G50">
-        <v>0.1140555081751869</v>
+        <v>0.127598378549577</v>
       </c>
       <c r="H50">
-        <v>0.1397001351389692</v>
-      </c>
-      <c r="I50">
-        <v>0.1239896712114319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1608369601268483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1210760182628568</v>
+        <v>0.1378455159863605</v>
       </c>
       <c r="C51">
-        <v>0.1325731750936053</v>
+        <v>0.147970450774834</v>
       </c>
       <c r="D51">
-        <v>0.1217743148876863</v>
+        <v>0.139100040234094</v>
       </c>
       <c r="E51">
-        <v>0.1279349869842799</v>
+        <v>0.1462774735270961</v>
       </c>
       <c r="F51">
-        <v>0.1228036338856482</v>
+        <v>0.1411696056789892</v>
       </c>
       <c r="G51">
-        <v>0.1334741240637149</v>
+        <v>0.1518350942131256</v>
       </c>
       <c r="H51">
-        <v>0.1233468618760103</v>
-      </c>
-      <c r="I51">
-        <v>0.1170168849461982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1358018195855006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.09121101295402179</v>
+        <v>0.1049133164048396</v>
       </c>
       <c r="C52">
-        <v>0.1429094308945312</v>
+        <v>0.1611881660738324</v>
       </c>
       <c r="D52">
-        <v>0.06604475418737098</v>
+        <v>0.07812743848856314</v>
       </c>
       <c r="E52">
-        <v>0.07915339453573961</v>
+        <v>0.0937712333940077</v>
       </c>
       <c r="F52">
-        <v>0.2312843100915171</v>
+        <v>0.2689696888218293</v>
       </c>
       <c r="G52">
-        <v>0.08639535011778049</v>
+        <v>0.1010223612940724</v>
       </c>
       <c r="H52">
-        <v>0.1672177775110736</v>
-      </c>
-      <c r="I52">
-        <v>0.1357839697079653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1920077955228554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1516673285890638</v>
+        <v>0.1804117962617564</v>
       </c>
       <c r="C53">
-        <v>0.1327463535475435</v>
+        <v>0.151437011946437</v>
       </c>
       <c r="D53">
-        <v>0.1274706079112204</v>
+        <v>0.1479733046856473</v>
       </c>
       <c r="E53">
-        <v>0.09722968755139601</v>
+        <v>0.1148308817223051</v>
       </c>
       <c r="F53">
-        <v>0.0477691334843122</v>
+        <v>0.05528851166507875</v>
       </c>
       <c r="G53">
-        <v>0.1741214669444196</v>
+        <v>0.2098873586143324</v>
       </c>
       <c r="H53">
-        <v>0.1178408321388224</v>
-      </c>
-      <c r="I53">
-        <v>0.1511545898332221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.140171135104443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1592630482081246</v>
+        <v>0.1806701413850848</v>
       </c>
       <c r="C54">
-        <v>0.1194025056572014</v>
+        <v>0.1307892090904132</v>
       </c>
       <c r="D54">
-        <v>0.1262463510135314</v>
+        <v>0.1438084338716289</v>
       </c>
       <c r="E54">
-        <v>0.1216624433740425</v>
+        <v>0.1387536544387331</v>
       </c>
       <c r="F54">
-        <v>0.1093176575137819</v>
+        <v>0.1194003042929901</v>
       </c>
       <c r="G54">
-        <v>0.1510904590888037</v>
+        <v>0.170668303615877</v>
       </c>
       <c r="H54">
-        <v>0.1062905599945903</v>
-      </c>
-      <c r="I54">
-        <v>0.1067269751499242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1159099533052729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1450070776173841</v>
+        <v>0.1599746409731449</v>
       </c>
       <c r="C55">
-        <v>0.1293620306097144</v>
+        <v>0.1430599844855202</v>
       </c>
       <c r="D55">
-        <v>0.133415225244843</v>
+        <v>0.1480700134272643</v>
       </c>
       <c r="E55">
-        <v>0.1247228844088105</v>
+        <v>0.1387556569851909</v>
       </c>
       <c r="F55">
-        <v>0.1082889204299108</v>
+        <v>0.1257520945662765</v>
       </c>
       <c r="G55">
-        <v>0.1629882253247001</v>
+        <v>0.1832698441516303</v>
       </c>
       <c r="H55">
-        <v>0.09255660170283164</v>
-      </c>
-      <c r="I55">
-        <v>0.1036590346618057</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1011177654109729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1012704969567658</v>
+        <v>0.1167852686104653</v>
       </c>
       <c r="C56">
-        <v>0.1365868023864476</v>
+        <v>0.1531914473930224</v>
       </c>
       <c r="D56">
-        <v>0.1209545704902611</v>
+        <v>0.1395527013809992</v>
       </c>
       <c r="E56">
-        <v>0.1236396186676334</v>
+        <v>0.1446653748138917</v>
       </c>
       <c r="F56">
-        <v>0.1255942262627113</v>
+        <v>0.1461628065044923</v>
       </c>
       <c r="G56">
-        <v>0.1248288751569312</v>
+        <v>0.1395137616269219</v>
       </c>
       <c r="H56">
-        <v>0.141956615307539</v>
-      </c>
-      <c r="I56">
-        <v>0.1251687947717105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1601286396702072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1163165550341007</v>
+        <v>0.1317735931373649</v>
       </c>
       <c r="C57">
-        <v>0.1251430025351292</v>
+        <v>0.1460987340480971</v>
       </c>
       <c r="D57">
-        <v>0.1193744762153414</v>
+        <v>0.1372846388268598</v>
       </c>
       <c r="E57">
-        <v>0.1204798953516105</v>
+        <v>0.1397874980273244</v>
       </c>
       <c r="F57">
-        <v>0.1178457236828771</v>
+        <v>0.1338326278098507</v>
       </c>
       <c r="G57">
-        <v>0.1150469015184081</v>
+        <v>0.1311291851037457</v>
       </c>
       <c r="H57">
-        <v>0.1585562072350214</v>
-      </c>
-      <c r="I57">
-        <v>0.1272372384275114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1800937230467574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.09648431765746845</v>
+        <v>0.1089364533084033</v>
       </c>
       <c r="C58">
-        <v>0.1279273699646312</v>
+        <v>0.1497080658148646</v>
       </c>
       <c r="D58">
-        <v>0.1147645370912026</v>
+        <v>0.1338233046320376</v>
       </c>
       <c r="E58">
-        <v>0.1157798114728017</v>
+        <v>0.1351862689071873</v>
       </c>
       <c r="F58">
-        <v>0.1452981331280362</v>
+        <v>0.1675752727496462</v>
       </c>
       <c r="G58">
-        <v>0.1116421678984787</v>
+        <v>0.1281805901737403</v>
       </c>
       <c r="H58">
-        <v>0.1543968710391476</v>
-      </c>
-      <c r="I58">
-        <v>0.1337067917482337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1765900444141205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.06887642893284737</v>
+        <v>0.07623425128914071</v>
       </c>
       <c r="C59">
-        <v>0.1540483258255346</v>
+        <v>0.1785390498750868</v>
       </c>
       <c r="D59">
-        <v>0.0937172010792973</v>
+        <v>0.1107232602922557</v>
       </c>
       <c r="E59">
-        <v>0.1060701663942367</v>
+        <v>0.1239439290634688</v>
       </c>
       <c r="F59">
-        <v>0.2220726959521839</v>
+        <v>0.2587835287794925</v>
       </c>
       <c r="G59">
-        <v>0.06804365685398929</v>
+        <v>0.0759295084528777</v>
       </c>
       <c r="H59">
-        <v>0.1534021055478097</v>
-      </c>
-      <c r="I59">
-        <v>0.1337694194141011</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1758464722476779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1002023268342702</v>
+        <v>0.1137377304556947</v>
       </c>
       <c r="C60">
-        <v>0.1327359452279522</v>
+        <v>0.1511812435949709</v>
       </c>
       <c r="D60">
-        <v>0.117467897764177</v>
+        <v>0.1359603095725595</v>
       </c>
       <c r="E60">
-        <v>0.1190901668205818</v>
+        <v>0.1381357835861683</v>
       </c>
       <c r="F60">
-        <v>0.1495402672486388</v>
+        <v>0.1723021998994462</v>
       </c>
       <c r="G60">
-        <v>0.1079030955081279</v>
+        <v>0.1208389108105127</v>
       </c>
       <c r="H60">
-        <v>0.1468467277122096</v>
-      </c>
-      <c r="I60">
-        <v>0.1262135728840426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1678438220806477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.07854070627531291</v>
+        <v>0.08927541435438398</v>
       </c>
       <c r="C61">
-        <v>0.1391199517169473</v>
+        <v>0.1595597473430616</v>
       </c>
       <c r="D61">
-        <v>0.1001637983727789</v>
+        <v>0.1115470698246249</v>
       </c>
       <c r="E61">
-        <v>0.1118062972341459</v>
+        <v>0.1250904971461848</v>
       </c>
       <c r="F61">
-        <v>0.2331061564348316</v>
+        <v>0.2683353238188269</v>
       </c>
       <c r="G61">
-        <v>0.07656756001886572</v>
+        <v>0.0848480754603373</v>
       </c>
       <c r="H61">
-        <v>0.1448242934100464</v>
-      </c>
-      <c r="I61">
-        <v>0.1158712365370714</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1613438720525803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1562699459108369</v>
+        <v>0.1790358763166741</v>
       </c>
       <c r="C62">
-        <v>0.1087542080114656</v>
+        <v>0.1179857004764703</v>
       </c>
       <c r="D62">
-        <v>0.1601525662110485</v>
+        <v>0.1757478550137857</v>
       </c>
       <c r="E62">
-        <v>0.1366655821374963</v>
+        <v>0.1519977848191049</v>
       </c>
       <c r="F62">
-        <v>0.1032565878520781</v>
+        <v>0.11304738504786</v>
       </c>
       <c r="G62">
-        <v>0.150194428635146</v>
+        <v>0.1605803983842954</v>
       </c>
       <c r="H62">
-        <v>0.09139409685740388</v>
-      </c>
-      <c r="I62">
-        <v>0.09331258438452461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1016049999418096</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.2103123293437522</v>
+        <v>0.2494636181313141</v>
       </c>
       <c r="C63">
-        <v>0.09836836054444159</v>
+        <v>0.1108279767338591</v>
       </c>
       <c r="D63">
-        <v>0.102564861612445</v>
+        <v>0.1088896371415293</v>
       </c>
       <c r="E63">
-        <v>0.1123311852019233</v>
+        <v>0.1220608919180773</v>
       </c>
       <c r="F63">
-        <v>0.07290537365022383</v>
+        <v>0.07781385362320938</v>
       </c>
       <c r="G63">
-        <v>0.1475402282600555</v>
+        <v>0.167995058232715</v>
       </c>
       <c r="H63">
-        <v>0.1367160606796966</v>
-      </c>
-      <c r="I63">
-        <v>0.1192616007074622</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1629489642192958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1343121651755903</v>
+        <v>0.1544712578022637</v>
       </c>
       <c r="C64">
-        <v>0.1227815630138233</v>
+        <v>0.1402812092552563</v>
       </c>
       <c r="D64">
-        <v>0.1370226565777525</v>
+        <v>0.1538022622270762</v>
       </c>
       <c r="E64">
-        <v>0.1392419930419714</v>
+        <v>0.1552846431420234</v>
       </c>
       <c r="F64">
-        <v>0.09318975838386406</v>
+        <v>0.1033732683185059</v>
       </c>
       <c r="G64">
-        <v>0.1336517526365959</v>
+        <v>0.1520088644934018</v>
       </c>
       <c r="H64">
-        <v>0.1246166209478963</v>
-      </c>
-      <c r="I64">
-        <v>0.1151834902225064</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1407784947614729</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08468109939536415</v>
+        <v>0.09877956815340344</v>
       </c>
       <c r="C65">
-        <v>0.1373948440381308</v>
+        <v>0.1552560147443282</v>
       </c>
       <c r="D65">
-        <v>0.09562220442424717</v>
+        <v>0.1156992968680476</v>
       </c>
       <c r="E65">
-        <v>0.1026768906099085</v>
+        <v>0.1257443655005912</v>
       </c>
       <c r="F65">
-        <v>0.1912862776505457</v>
+        <v>0.217363104152662</v>
       </c>
       <c r="G65">
-        <v>0.08566450160091052</v>
+        <v>0.09977258003957945</v>
       </c>
       <c r="H65">
-        <v>0.1590904423666332</v>
-      </c>
-      <c r="I65">
-        <v>0.1435837399142599</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1873850705413881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1419072757645909</v>
+        <v>0.1644088464681677</v>
       </c>
       <c r="C66">
-        <v>0.1171548489046869</v>
+        <v>0.1325695802509377</v>
       </c>
       <c r="D66">
-        <v>0.1322910621097567</v>
+        <v>0.1489504506008562</v>
       </c>
       <c r="E66">
-        <v>0.1302878398021365</v>
+        <v>0.1479856420993065</v>
       </c>
       <c r="F66">
-        <v>0.1041630368614463</v>
+        <v>0.1170561879139056</v>
       </c>
       <c r="G66">
-        <v>0.1403951792976969</v>
+        <v>0.161886047510392</v>
       </c>
       <c r="H66">
-        <v>0.1117559580636664</v>
-      </c>
-      <c r="I66">
-        <v>0.1220447991960193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1271432451564343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1644603543743965</v>
+        <v>0.1828917629204769</v>
       </c>
       <c r="C67">
-        <v>0.1107661945250888</v>
+        <v>0.1253285619474372</v>
       </c>
       <c r="D67">
-        <v>0.1478740002029112</v>
+        <v>0.1670083896766396</v>
       </c>
       <c r="E67">
-        <v>0.1324119885928405</v>
+        <v>0.1444677879365165</v>
       </c>
       <c r="F67">
-        <v>0.08716678342043929</v>
+        <v>0.09740403011521222</v>
       </c>
       <c r="G67">
-        <v>0.1556941489675565</v>
+        <v>0.1744962768615249</v>
       </c>
       <c r="H67">
-        <v>0.09785195649619516</v>
-      </c>
-      <c r="I67">
-        <v>0.1037745734205719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1084031905421929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.09169502633609544</v>
+        <v>0.1100381771140207</v>
       </c>
       <c r="C68">
-        <v>0.1365345223340871</v>
+        <v>0.1521027977845137</v>
       </c>
       <c r="D68">
-        <v>0.1103827422391244</v>
+        <v>0.1243177864843236</v>
       </c>
       <c r="E68">
-        <v>0.1144398821536029</v>
+        <v>0.1314987151088439</v>
       </c>
       <c r="F68">
-        <v>0.1596470611673478</v>
+        <v>0.1832581424594487</v>
       </c>
       <c r="G68">
-        <v>0.09491972480431329</v>
+        <v>0.1140561565243871</v>
       </c>
       <c r="H68">
-        <v>0.1570463088337066</v>
-      </c>
-      <c r="I68">
-        <v>0.1353347321317223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1847282245244623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1356715029509882</v>
+        <v>0.1540208435159</v>
       </c>
       <c r="C69">
-        <v>0.1214565120294162</v>
+        <v>0.1396573273507417</v>
       </c>
       <c r="D69">
-        <v>0.1356682815432608</v>
+        <v>0.1516156995097032</v>
       </c>
       <c r="E69">
-        <v>0.1330692131338364</v>
+        <v>0.147166954308861</v>
       </c>
       <c r="F69">
-        <v>0.1165300776728337</v>
+        <v>0.131050294299888</v>
       </c>
       <c r="G69">
-        <v>0.1390993482408977</v>
+        <v>0.155490284943711</v>
       </c>
       <c r="H69">
-        <v>0.1068523402125016</v>
-      </c>
-      <c r="I69">
-        <v>0.1116527242162652</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1209985960711952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0878690261474326</v>
+        <v>0.09901610632840961</v>
       </c>
       <c r="C70">
-        <v>0.1474559447622837</v>
+        <v>0.1707155288749795</v>
       </c>
       <c r="D70">
-        <v>0.1291337099698441</v>
+        <v>0.1505663968037129</v>
       </c>
       <c r="E70">
-        <v>0.1369954664369873</v>
+        <v>0.1598811422063755</v>
       </c>
       <c r="F70">
-        <v>0.1237675662130498</v>
+        <v>0.1430961188114205</v>
       </c>
       <c r="G70">
-        <v>0.09059355638869293</v>
+        <v>0.1059260678146016</v>
       </c>
       <c r="H70">
-        <v>0.1513032088202723</v>
-      </c>
-      <c r="I70">
-        <v>0.1328815212614374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1707986391605003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1603117296144651</v>
+        <v>0.1782609602046931</v>
       </c>
       <c r="C71">
-        <v>0.1200311824826147</v>
+        <v>0.133926434557473</v>
       </c>
       <c r="D71">
-        <v>0.1229105650765075</v>
+        <v>0.1398215816386049</v>
       </c>
       <c r="E71">
-        <v>0.1191840958739804</v>
+        <v>0.136723926333815</v>
       </c>
       <c r="F71">
-        <v>0.1162428735909918</v>
+        <v>0.1323187454448753</v>
       </c>
       <c r="G71">
-        <v>0.1301750400396826</v>
+        <v>0.148116672625736</v>
       </c>
       <c r="H71">
-        <v>0.1182585347981445</v>
-      </c>
-      <c r="I71">
-        <v>0.1128859785236136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1308316791948029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.09410586325298823</v>
+        <v>0.1127269280702185</v>
       </c>
       <c r="C72">
-        <v>0.1510904316370716</v>
+        <v>0.1705456749640068</v>
       </c>
       <c r="D72">
-        <v>0.09684041782464543</v>
+        <v>0.1085274723683781</v>
       </c>
       <c r="E72">
-        <v>0.1125775453461941</v>
+        <v>0.124938147298375</v>
       </c>
       <c r="F72">
-        <v>0.1867756458425681</v>
+        <v>0.2232101661930768</v>
       </c>
       <c r="G72">
-        <v>0.07710418979256801</v>
+        <v>0.08821782313047311</v>
       </c>
       <c r="H72">
-        <v>0.1513647966141226</v>
-      </c>
-      <c r="I72">
-        <v>0.1301411096898419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1718337879754718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1489378313337629</v>
+        <v>0.2062332029500937</v>
       </c>
       <c r="C73">
-        <v>0.1092902147217279</v>
+        <v>0.144962744631983</v>
       </c>
       <c r="D73">
-        <v>0.08010125838456077</v>
+        <v>0.09201915598627558</v>
       </c>
       <c r="E73">
-        <v>0.1181740632333729</v>
+        <v>0.1441643057825646</v>
       </c>
       <c r="F73">
-        <v>0.04343551312797438</v>
+        <v>0.06026156321220133</v>
       </c>
       <c r="G73">
-        <v>0.1436065427119744</v>
+        <v>0.1908150671978905</v>
       </c>
       <c r="H73">
-        <v>0.1234060144901161</v>
-      </c>
-      <c r="I73">
-        <v>0.2330485619965106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1615439602389911</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1565936633537945</v>
+        <v>0.1759580118963941</v>
       </c>
       <c r="C74">
-        <v>0.1217796149624208</v>
+        <v>0.1387857270140494</v>
       </c>
       <c r="D74">
-        <v>0.1316230557522772</v>
+        <v>0.1517239010846164</v>
       </c>
       <c r="E74">
-        <v>0.1095254724997802</v>
+        <v>0.1244943916448833</v>
       </c>
       <c r="F74">
-        <v>0.1206498557821778</v>
+        <v>0.1369354453170308</v>
       </c>
       <c r="G74">
-        <v>0.1446045580855776</v>
+        <v>0.1649448821845015</v>
       </c>
       <c r="H74">
-        <v>0.09683363839638906</v>
-      </c>
-      <c r="I74">
-        <v>0.1183901411675829</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.1071576408585244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.09338615728205203</v>
+        <v>0.1038159763027076</v>
       </c>
       <c r="C75">
-        <v>0.1415572283350028</v>
+        <v>0.158415907451151</v>
       </c>
       <c r="D75">
-        <v>0.126476688449905</v>
+        <v>0.1516899473744459</v>
       </c>
       <c r="E75">
-        <v>0.1253471940345828</v>
+        <v>0.1451961880794386</v>
       </c>
       <c r="F75">
-        <v>0.1399914220638273</v>
+        <v>0.1574267045848768</v>
       </c>
       <c r="G75">
-        <v>0.09592355714704646</v>
+        <v>0.1084621667728597</v>
       </c>
       <c r="H75">
-        <v>0.1570827991046588</v>
-      </c>
-      <c r="I75">
-        <v>0.1202349535829249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1749931094345203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1239243221325903</v>
+        <v>0.1398685331587456</v>
       </c>
       <c r="C76">
-        <v>0.1210735247530244</v>
+        <v>0.1276602842027208</v>
       </c>
       <c r="D76">
-        <v>0.1752990624413103</v>
+        <v>0.1956731671612188</v>
       </c>
       <c r="E76">
-        <v>0.1369393047905826</v>
+        <v>0.1525935173707196</v>
       </c>
       <c r="F76">
-        <v>0.1165404690467985</v>
+        <v>0.1263932315519467</v>
       </c>
       <c r="G76">
-        <v>0.1427695310923321</v>
+        <v>0.1544829654237593</v>
       </c>
       <c r="H76">
-        <v>0.08794114407609245</v>
-      </c>
-      <c r="I76">
-        <v>0.09551264166726926</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1033283011308891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.2352034705383768</v>
+        <v>0.2751423966140364</v>
       </c>
       <c r="C77">
-        <v>0.13576836604274</v>
+        <v>0.1499144093080829</v>
       </c>
       <c r="D77">
-        <v>0.05959349994720409</v>
+        <v>0.06696016261504892</v>
       </c>
       <c r="E77">
-        <v>0.06100897235119863</v>
+        <v>0.07189708349449762</v>
       </c>
       <c r="F77">
-        <v>0.1157168791765865</v>
+        <v>0.1293414234709891</v>
       </c>
       <c r="G77">
-        <v>0.1313221422365417</v>
+        <v>0.1475559939158407</v>
       </c>
       <c r="H77">
-        <v>0.1274148421591833</v>
-      </c>
-      <c r="I77">
-        <v>0.1339718275481689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1591885305815041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1277445963227483</v>
+        <v>0.1663669736828615</v>
       </c>
       <c r="C78">
-        <v>0.1100201575448624</v>
+        <v>0.135661839589977</v>
       </c>
       <c r="D78">
-        <v>0.090790147135889</v>
+        <v>0.1171205220367597</v>
       </c>
       <c r="E78">
-        <v>0.1001102866247653</v>
+        <v>0.134466412302719</v>
       </c>
       <c r="F78">
-        <v>0.05977408268020099</v>
+        <v>0.08425912431722364</v>
       </c>
       <c r="G78">
-        <v>0.160330318738677</v>
+        <v>0.2023767226226884</v>
       </c>
       <c r="H78">
-        <v>0.1320710456136052</v>
-      </c>
-      <c r="I78">
-        <v>0.2191593653392519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1597484054477707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1046914233346739</v>
+        <v>0.1225476672739616</v>
       </c>
       <c r="C79">
-        <v>0.125058628249337</v>
+        <v>0.1442509754862054</v>
       </c>
       <c r="D79">
-        <v>0.1404860206873401</v>
+        <v>0.1596979926971331</v>
       </c>
       <c r="E79">
-        <v>0.125341786899132</v>
+        <v>0.1441362886497163</v>
       </c>
       <c r="F79">
-        <v>0.1166561158183485</v>
+        <v>0.1388480053160403</v>
       </c>
       <c r="G79">
-        <v>0.1083582241699573</v>
+        <v>0.1216609783442728</v>
       </c>
       <c r="H79">
-        <v>0.1451685006022939</v>
-      </c>
-      <c r="I79">
-        <v>0.1342393002389174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1688580922326704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.07700473160669387</v>
+        <v>0.09031025296091036</v>
       </c>
       <c r="C80">
-        <v>0.1522392665950929</v>
+        <v>0.1794642232689312</v>
       </c>
       <c r="D80">
-        <v>0.07634836059883211</v>
+        <v>0.08462142811774093</v>
       </c>
       <c r="E80">
-        <v>0.09052704191710219</v>
+        <v>0.1019364031930999</v>
       </c>
       <c r="F80">
-        <v>0.2367707693730388</v>
+        <v>0.2701454423352779</v>
       </c>
       <c r="G80">
-        <v>0.09885651807397265</v>
+        <v>0.1140889365270442</v>
       </c>
       <c r="H80">
-        <v>0.141596841357391</v>
-      </c>
-      <c r="I80">
-        <v>0.1266564704778766</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1594333135969957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.09314154943374239</v>
+        <v>0.1081657638722179</v>
       </c>
       <c r="C81">
-        <v>0.1435561706844968</v>
+        <v>0.1671974082619034</v>
       </c>
       <c r="D81">
-        <v>0.1213117155651953</v>
+        <v>0.138024611971248</v>
       </c>
       <c r="E81">
-        <v>0.1253528592484829</v>
+        <v>0.1433820046728829</v>
       </c>
       <c r="F81">
-        <v>0.1365653045427563</v>
+        <v>0.158121744636309</v>
       </c>
       <c r="G81">
-        <v>0.09308738009797404</v>
+        <v>0.1072298955402769</v>
       </c>
       <c r="H81">
-        <v>0.1557780525482752</v>
-      </c>
-      <c r="I81">
-        <v>0.1312069678790772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1778785710451619</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.124778260153478</v>
+        <v>0.1426968864915959</v>
       </c>
       <c r="C82">
-        <v>0.1186397544991663</v>
+        <v>0.1372642927798871</v>
       </c>
       <c r="D82">
-        <v>0.1245031949326409</v>
+        <v>0.1448717627031339</v>
       </c>
       <c r="E82">
-        <v>0.1231555101434664</v>
+        <v>0.1410734048056451</v>
       </c>
       <c r="F82">
-        <v>0.1312877908621563</v>
+        <v>0.1530237324222486</v>
       </c>
       <c r="G82">
-        <v>0.1235578155477225</v>
+        <v>0.1415152808722987</v>
       </c>
       <c r="H82">
-        <v>0.1222307172774961</v>
-      </c>
-      <c r="I82">
-        <v>0.1318469565838734</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1395546399251906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.09882160054698841</v>
+        <v>0.1112278379268209</v>
       </c>
       <c r="C83">
-        <v>0.1363052802471729</v>
+        <v>0.1531184954728509</v>
       </c>
       <c r="D83">
-        <v>0.1309703043667587</v>
+        <v>0.1510621700859342</v>
       </c>
       <c r="E83">
-        <v>0.1275389864220399</v>
+        <v>0.1464118711803862</v>
       </c>
       <c r="F83">
-        <v>0.1401943301639355</v>
+        <v>0.157706033544071</v>
       </c>
       <c r="G83">
-        <v>0.1015349436993563</v>
+        <v>0.1178953531092838</v>
       </c>
       <c r="H83">
-        <v>0.1421493811144759</v>
-      </c>
-      <c r="I83">
-        <v>0.1224851734392725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.162578238680653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1458788984266757</v>
+        <v>0.1606752499205273</v>
       </c>
       <c r="C84">
-        <v>0.1153768253360299</v>
+        <v>0.1304556402388712</v>
       </c>
       <c r="D84">
-        <v>0.149268484352156</v>
+        <v>0.1609080565156991</v>
       </c>
       <c r="E84">
-        <v>0.1327528366780731</v>
+        <v>0.1433058810705119</v>
       </c>
       <c r="F84">
-        <v>0.117729561108409</v>
+        <v>0.1338637657419875</v>
       </c>
       <c r="G84">
-        <v>0.1427604623800007</v>
+        <v>0.1628953077387255</v>
       </c>
       <c r="H84">
-        <v>0.09307061272144401</v>
-      </c>
-      <c r="I84">
-        <v>0.1031623189972115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1078960987736774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1588480039471757</v>
+        <v>0.1836359720673952</v>
       </c>
       <c r="C85">
-        <v>0.0872886382557224</v>
+        <v>0.1042668392916437</v>
       </c>
       <c r="D85">
-        <v>0.1189641460494835</v>
+        <v>0.141217399749846</v>
       </c>
       <c r="E85">
-        <v>0.1379484702698343</v>
+        <v>0.1594375625516557</v>
       </c>
       <c r="F85">
-        <v>0.0822008990731697</v>
+        <v>0.09279028491547531</v>
       </c>
       <c r="G85">
-        <v>0.140154543797921</v>
+        <v>0.1647969455481587</v>
       </c>
       <c r="H85">
-        <v>0.1263292857271059</v>
-      </c>
-      <c r="I85">
-        <v>0.1482660128795874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1538549958758253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1544534992836913</v>
+        <v>0.1710576147582483</v>
       </c>
       <c r="C86">
-        <v>0.1031784599903229</v>
+        <v>0.1119509604408268</v>
       </c>
       <c r="D86">
-        <v>0.1519813886483467</v>
+        <v>0.1732229882877039</v>
       </c>
       <c r="E86">
-        <v>0.1678097064365796</v>
+        <v>0.1880273366231083</v>
       </c>
       <c r="F86">
-        <v>0.09778694311609279</v>
+        <v>0.1059407075098018</v>
       </c>
       <c r="G86">
-        <v>0.1387446654029531</v>
+        <v>0.152903316371344</v>
       </c>
       <c r="H86">
-        <v>0.08571842827971869</v>
-      </c>
-      <c r="I86">
-        <v>0.1003269088422949</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.09689707600896685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1484688018551713</v>
+        <v>0.176038253001326</v>
       </c>
       <c r="C87">
-        <v>0.1358494147368005</v>
+        <v>0.1582293796073308</v>
       </c>
       <c r="D87">
-        <v>0.09280177673439824</v>
+        <v>0.1134408462660495</v>
       </c>
       <c r="E87">
-        <v>0.1261382435728265</v>
+        <v>0.1651957027072044</v>
       </c>
       <c r="F87">
-        <v>0.02379105479153119</v>
+        <v>0.02813119685369807</v>
       </c>
       <c r="G87">
-        <v>0.1721083943900586</v>
+        <v>0.2193507141960271</v>
       </c>
       <c r="H87">
-        <v>0.1154952802745478</v>
-      </c>
-      <c r="I87">
-        <v>0.185347033644666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1396139073683641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.08279755228366306</v>
+        <v>0.09305670596718035</v>
       </c>
       <c r="C88">
-        <v>0.1450811226353096</v>
+        <v>0.1611699684961536</v>
       </c>
       <c r="D88">
-        <v>0.1103565813771877</v>
+        <v>0.1264567957512217</v>
       </c>
       <c r="E88">
-        <v>0.1216726071260247</v>
+        <v>0.138245195143562</v>
       </c>
       <c r="F88">
-        <v>0.1787951925854062</v>
+        <v>0.2061151601728135</v>
       </c>
       <c r="G88">
-        <v>0.09584882647572486</v>
+        <v>0.1141746086194553</v>
       </c>
       <c r="H88">
-        <v>0.1467797170132646</v>
-      </c>
-      <c r="I88">
-        <v>0.1186684005034193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1607815658496135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1505366251949669</v>
+        <v>0.1712121387148561</v>
       </c>
       <c r="C89">
-        <v>0.1249236813950842</v>
+        <v>0.1395460825446213</v>
       </c>
       <c r="D89">
-        <v>0.1286458724199889</v>
+        <v>0.1466060108511683</v>
       </c>
       <c r="E89">
-        <v>0.1292598215519506</v>
+        <v>0.1468861888154264</v>
       </c>
       <c r="F89">
-        <v>0.09522086002493932</v>
+        <v>0.1082690725041927</v>
       </c>
       <c r="G89">
-        <v>0.1301145918986372</v>
+        <v>0.1495910652994253</v>
       </c>
       <c r="H89">
-        <v>0.1225424327529925</v>
-      </c>
-      <c r="I89">
-        <v>0.1187561147614402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1378894412703099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.09071626328988273</v>
+        <v>0.1055362286390426</v>
       </c>
       <c r="C90">
-        <v>0.1378897355759732</v>
+        <v>0.1601311390205251</v>
       </c>
       <c r="D90">
-        <v>0.1218752139606878</v>
+        <v>0.1401037358155653</v>
       </c>
       <c r="E90">
-        <v>0.1297614132295232</v>
+        <v>0.1471703057576025</v>
       </c>
       <c r="F90">
-        <v>0.1223798788023792</v>
+        <v>0.1404063463933516</v>
       </c>
       <c r="G90">
-        <v>0.09668902113803467</v>
+        <v>0.1133355933400968</v>
       </c>
       <c r="H90">
-        <v>0.1701415890581941</v>
-      </c>
-      <c r="I90">
-        <v>0.130546884945325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1933166510338162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.09226633143650478</v>
+        <v>0.1075064736481033</v>
       </c>
       <c r="C91">
-        <v>0.1533327577606357</v>
+        <v>0.1733638878170768</v>
       </c>
       <c r="D91">
-        <v>0.1172673431239302</v>
+        <v>0.1374139476345886</v>
       </c>
       <c r="E91">
-        <v>0.1158635323444852</v>
+        <v>0.1352798736917154</v>
       </c>
       <c r="F91">
-        <v>0.1390451599212124</v>
+        <v>0.1625439855099017</v>
       </c>
       <c r="G91">
-        <v>0.08759805872040205</v>
+        <v>0.101920647723162</v>
       </c>
       <c r="H91">
-        <v>0.1590392477499126</v>
-      </c>
-      <c r="I91">
-        <v>0.1355875689429168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1819711839754521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1003573511649654</v>
+        <v>0.1175683379094249</v>
       </c>
       <c r="C92">
-        <v>0.1396442879821241</v>
+        <v>0.1602412711538967</v>
       </c>
       <c r="D92">
-        <v>0.1258965926000964</v>
+        <v>0.1467289538105211</v>
       </c>
       <c r="E92">
-        <v>0.1292635105031154</v>
+        <v>0.1511335444854315</v>
       </c>
       <c r="F92">
-        <v>0.1331986074691153</v>
+        <v>0.1543455610205287</v>
       </c>
       <c r="G92">
-        <v>0.09282520491716063</v>
+        <v>0.1111388439222896</v>
       </c>
       <c r="H92">
-        <v>0.1325458963085104</v>
-      </c>
-      <c r="I92">
-        <v>0.1462685490549124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1588434876979075</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.08737024377275365</v>
+        <v>0.09546753871797793</v>
       </c>
       <c r="C93">
-        <v>0.1498902554807077</v>
+        <v>0.1696821492029263</v>
       </c>
       <c r="D93">
-        <v>0.09821215227695569</v>
+        <v>0.1038969919072402</v>
       </c>
       <c r="E93">
-        <v>0.1113692694068618</v>
+        <v>0.121969794143253</v>
       </c>
       <c r="F93">
-        <v>0.2021519249319406</v>
+        <v>0.2267447071624989</v>
       </c>
       <c r="G93">
-        <v>0.07401513744069628</v>
+        <v>0.08285322976868183</v>
       </c>
       <c r="H93">
-        <v>0.1719657768167611</v>
-      </c>
-      <c r="I93">
-        <v>0.1050252398733232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.199385589097422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1444842673885154</v>
+        <v>0.162488600544762</v>
       </c>
       <c r="C94">
-        <v>0.1206474247478708</v>
+        <v>0.1343592315189632</v>
       </c>
       <c r="D94">
-        <v>0.1414377669311883</v>
+        <v>0.159230877417395</v>
       </c>
       <c r="E94">
-        <v>0.1236923932529046</v>
+        <v>0.1377655275408718</v>
       </c>
       <c r="F94">
-        <v>0.1147497767880871</v>
+        <v>0.1305073612934164</v>
       </c>
       <c r="G94">
-        <v>0.1440896877914393</v>
+        <v>0.164354702459465</v>
       </c>
       <c r="H94">
-        <v>0.09982239857349709</v>
-      </c>
-      <c r="I94">
-        <v>0.1110762845264973</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1112936992251266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.125530276602226</v>
+        <v>0.1433916973087399</v>
       </c>
       <c r="C95">
-        <v>0.1185269133918817</v>
+        <v>0.1337324855845969</v>
       </c>
       <c r="D95">
-        <v>0.1491549480869908</v>
+        <v>0.1688745046355981</v>
       </c>
       <c r="E95">
-        <v>0.1386804949895722</v>
+        <v>0.1566725649106834</v>
       </c>
       <c r="F95">
-        <v>0.1132635959727076</v>
+        <v>0.1262761526281131</v>
       </c>
       <c r="G95">
-        <v>0.1206579680636895</v>
+        <v>0.1396228956186762</v>
       </c>
       <c r="H95">
-        <v>0.1151889501389043</v>
-      </c>
-      <c r="I95">
-        <v>0.1189968527540278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1314296993135924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1384202576163836</v>
+        <v>0.1513903147288292</v>
       </c>
       <c r="C96">
-        <v>0.1135880291281234</v>
+        <v>0.1361437305018401</v>
       </c>
       <c r="D96">
-        <v>0.1262243685492831</v>
+        <v>0.1399909482913174</v>
       </c>
       <c r="E96">
-        <v>0.1385208356159168</v>
+        <v>0.1637349720612947</v>
       </c>
       <c r="F96">
-        <v>0.08795676426612747</v>
+        <v>0.09454034515855601</v>
       </c>
       <c r="G96">
-        <v>0.1656131555404876</v>
+        <v>0.1940961733901581</v>
       </c>
       <c r="H96">
-        <v>0.1068316891722578</v>
-      </c>
-      <c r="I96">
-        <v>0.1228449001114202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1201035158680043</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.2752420868426138</v>
+        <v>0.3091007333846323</v>
       </c>
       <c r="C97">
-        <v>0.09639020351832654</v>
+        <v>0.1061291007611195</v>
       </c>
       <c r="D97">
-        <v>0.04216335234447968</v>
+        <v>0.04417194542995168</v>
       </c>
       <c r="E97">
-        <v>0.05179621457678282</v>
+        <v>0.05461968645359541</v>
       </c>
       <c r="F97">
-        <v>0.03786302256240988</v>
+        <v>0.03974496035946943</v>
       </c>
       <c r="G97">
-        <v>0.1821890443190298</v>
+        <v>0.2121618590467919</v>
       </c>
       <c r="H97">
-        <v>0.2061380214757392</v>
-      </c>
-      <c r="I97">
-        <v>0.1082180543606183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.2340717145644396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1342198945407864</v>
+        <v>0.1497208002398129</v>
       </c>
       <c r="C98">
-        <v>0.1177194661291818</v>
+        <v>0.1345170772224593</v>
       </c>
       <c r="D98">
-        <v>0.1007612063057483</v>
+        <v>0.1078332183865825</v>
       </c>
       <c r="E98">
-        <v>0.1150610572566292</v>
+        <v>0.1279866647250894</v>
       </c>
       <c r="F98">
-        <v>0.08076994763852983</v>
+        <v>0.08937673502947334</v>
       </c>
       <c r="G98">
-        <v>0.1706292009744681</v>
+        <v>0.1977275024135152</v>
       </c>
       <c r="H98">
-        <v>0.1622373290248138</v>
-      </c>
-      <c r="I98">
-        <v>0.1186018981298425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1928380019830675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1037091146003624</v>
+        <v>0.1208612867137043</v>
       </c>
       <c r="C99">
-        <v>0.1275712732045024</v>
+        <v>0.1499109685881854</v>
       </c>
       <c r="D99">
-        <v>0.1440353126887749</v>
+        <v>0.1597401794589691</v>
       </c>
       <c r="E99">
-        <v>0.1309812867989687</v>
+        <v>0.1485321306079209</v>
       </c>
       <c r="F99">
-        <v>0.1175714373664603</v>
+        <v>0.138095860635805</v>
       </c>
       <c r="G99">
-        <v>0.1156729509114059</v>
+        <v>0.1360441442744039</v>
       </c>
       <c r="H99">
-        <v>0.1320571947458417</v>
-      </c>
-      <c r="I99">
-        <v>0.1284014296836836</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1468154297210112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1407013835484905</v>
+        <v>0.1595734361321185</v>
       </c>
       <c r="C100">
-        <v>0.1279852586769517</v>
+        <v>0.1450001908232768</v>
       </c>
       <c r="D100">
-        <v>0.1340970530033369</v>
+        <v>0.1532429581312263</v>
       </c>
       <c r="E100">
-        <v>0.1209705041153117</v>
+        <v>0.1399350126962441</v>
       </c>
       <c r="F100">
-        <v>0.1206242623196748</v>
+        <v>0.1377254282275798</v>
       </c>
       <c r="G100">
-        <v>0.1443451061323015</v>
+        <v>0.1653709004144298</v>
       </c>
       <c r="H100">
-        <v>0.0883530514578391</v>
-      </c>
-      <c r="I100">
-        <v>0.1229233807460939</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.09915207357512476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1000370171483088</v>
+        <v>0.1079013920737405</v>
       </c>
       <c r="C101">
-        <v>0.1667195948707662</v>
+        <v>0.1859783191352375</v>
       </c>
       <c r="D101">
-        <v>0.0915298843335375</v>
+        <v>0.1014622362399225</v>
       </c>
       <c r="E101">
-        <v>0.113679716440204</v>
+        <v>0.1295061378841328</v>
       </c>
       <c r="F101">
-        <v>0.1594269916018173</v>
+        <v>0.1849732927485347</v>
       </c>
       <c r="G101">
-        <v>0.08262977283514332</v>
+        <v>0.09215010146543305</v>
       </c>
       <c r="H101">
-        <v>0.1696539661445871</v>
-      </c>
-      <c r="I101">
-        <v>0.116323056625636</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.1980285204529989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1453092372997718</v>
+        <v>0.1604605344704292</v>
       </c>
       <c r="C102">
-        <v>0.1227489581036975</v>
+        <v>0.1394584137837389</v>
       </c>
       <c r="D102">
-        <v>0.1203965756769944</v>
+        <v>0.1382213213766188</v>
       </c>
       <c r="E102">
-        <v>0.1282443429143715</v>
+        <v>0.1444228143922504</v>
       </c>
       <c r="F102">
-        <v>0.1329635623705353</v>
+        <v>0.1511297304110562</v>
       </c>
       <c r="G102">
-        <v>0.1222972596658688</v>
+        <v>0.1396624028424039</v>
       </c>
       <c r="H102">
-        <v>0.1127138667078238</v>
-      </c>
-      <c r="I102">
-        <v>0.115326197260937</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1266447827235028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.09295354573324559</v>
+        <v>0.1053793778532098</v>
       </c>
       <c r="C103">
-        <v>0.1478448918567429</v>
+        <v>0.1715170533725142</v>
       </c>
       <c r="D103">
-        <v>0.110095385109593</v>
+        <v>0.1241044977808159</v>
       </c>
       <c r="E103">
-        <v>0.1204209414730622</v>
+        <v>0.1382820464855827</v>
       </c>
       <c r="F103">
-        <v>0.1612620516296952</v>
+        <v>0.185744510264077</v>
       </c>
       <c r="G103">
-        <v>0.1001407716695464</v>
+        <v>0.1170995360970903</v>
       </c>
       <c r="H103">
-        <v>0.1377687810740779</v>
-      </c>
-      <c r="I103">
-        <v>0.1295136314540369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1578729781467098</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.09167992570394098</v>
+        <v>0.1027031251981196</v>
       </c>
       <c r="C104">
-        <v>0.1574672730957525</v>
+        <v>0.1801900900474269</v>
       </c>
       <c r="D104">
-        <v>0.0968173066605828</v>
+        <v>0.1079270633245873</v>
       </c>
       <c r="E104">
-        <v>0.116785207692397</v>
+        <v>0.1325365581944099</v>
       </c>
       <c r="F104">
-        <v>0.1982135382290967</v>
+        <v>0.2262109567174508</v>
       </c>
       <c r="G104">
-        <v>0.08474677820854967</v>
+        <v>0.0968053514207982</v>
       </c>
       <c r="H104">
-        <v>0.135422387415487</v>
-      </c>
-      <c r="I104">
-        <v>0.1188675829941934</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.1536268550972073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.08850678412884924</v>
+        <v>0.1008745029093608</v>
       </c>
       <c r="C105">
-        <v>0.1371265744440032</v>
+        <v>0.1531084805509503</v>
       </c>
       <c r="D105">
-        <v>0.1284530517884434</v>
+        <v>0.1488135128762793</v>
       </c>
       <c r="E105">
-        <v>0.1218155393639846</v>
+        <v>0.1404407315441759</v>
       </c>
       <c r="F105">
-        <v>0.1459389498530592</v>
+        <v>0.1670850561236087</v>
       </c>
       <c r="G105">
-        <v>0.09967622897884748</v>
+        <v>0.112498813113221</v>
       </c>
       <c r="H105">
-        <v>0.1540130210668931</v>
-      </c>
-      <c r="I105">
-        <v>0.1244698503759196</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1771789028824041</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1442647705500829</v>
+        <v>0.1627970164006682</v>
       </c>
       <c r="C106">
-        <v>0.1202180983880007</v>
+        <v>0.1350578936925978</v>
       </c>
       <c r="D106">
-        <v>0.1418765819075724</v>
+        <v>0.1611490049551916</v>
       </c>
       <c r="E106">
-        <v>0.1343377947814458</v>
+        <v>0.1487491884279439</v>
       </c>
       <c r="F106">
-        <v>0.11393827781556</v>
+        <v>0.1306694105203142</v>
       </c>
       <c r="G106">
-        <v>0.1364105509249527</v>
+        <v>0.1554631211105882</v>
       </c>
       <c r="H106">
-        <v>0.09411836782993796</v>
-      </c>
-      <c r="I106">
-        <v>0.1148355578024476</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.106114364892696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.09507001228309024</v>
+        <v>0.1080258304483054</v>
       </c>
       <c r="C107">
-        <v>0.1419746916677954</v>
+        <v>0.1618616627066324</v>
       </c>
       <c r="D107">
-        <v>0.1143166932538446</v>
+        <v>0.1343042709962312</v>
       </c>
       <c r="E107">
-        <v>0.1256706072020339</v>
+        <v>0.1469941935777053</v>
       </c>
       <c r="F107">
-        <v>0.1277820692991921</v>
+        <v>0.1485813901617909</v>
       </c>
       <c r="G107">
-        <v>0.09448713856000766</v>
+        <v>0.1121530899654771</v>
       </c>
       <c r="H107">
-        <v>0.1622080586027377</v>
-      </c>
-      <c r="I107">
-        <v>0.1384907291312986</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1880795621438577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1311923377556779</v>
+        <v>0.1462113538593688</v>
       </c>
       <c r="C108">
-        <v>0.132965227473971</v>
+        <v>0.1491768154699362</v>
       </c>
       <c r="D108">
-        <v>0.1342888122730447</v>
+        <v>0.1559038720137555</v>
       </c>
       <c r="E108">
-        <v>0.1291849593888698</v>
+        <v>0.1477944501077584</v>
       </c>
       <c r="F108">
-        <v>0.1127355219237473</v>
+        <v>0.1268489431444456</v>
       </c>
       <c r="G108">
-        <v>0.1047878224871338</v>
+        <v>0.1184236482706732</v>
       </c>
       <c r="H108">
-        <v>0.1374488713952944</v>
-      </c>
-      <c r="I108">
-        <v>0.1173964473022612</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1556409171340625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1598497558580964</v>
+        <v>0.1912487912454827</v>
       </c>
       <c r="C109">
-        <v>0.1247220435601935</v>
+        <v>0.138003914662261</v>
       </c>
       <c r="D109">
-        <v>0.1308192881100405</v>
+        <v>0.1426817081126122</v>
       </c>
       <c r="E109">
-        <v>0.1269264158672282</v>
+        <v>0.1381228893482486</v>
       </c>
       <c r="F109">
-        <v>0.1020029316856115</v>
+        <v>0.1123362008922161</v>
       </c>
       <c r="G109">
-        <v>0.1545211606743017</v>
+        <v>0.1664893008890481</v>
       </c>
       <c r="H109">
-        <v>0.09606130708941694</v>
-      </c>
-      <c r="I109">
-        <v>0.1050970971551113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1111171948501312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1228924380976092</v>
+        <v>0.1382940875596184</v>
       </c>
       <c r="C110">
-        <v>0.13431278541678</v>
+        <v>0.1512534762949749</v>
       </c>
       <c r="D110">
-        <v>0.1216909196470682</v>
+        <v>0.1399531482626521</v>
       </c>
       <c r="E110">
-        <v>0.1193789235835582</v>
+        <v>0.1359401896739455</v>
       </c>
       <c r="F110">
-        <v>0.1472714922726862</v>
+        <v>0.1665259270919671</v>
       </c>
       <c r="G110">
-        <v>0.1002569582822882</v>
+        <v>0.1142469915983857</v>
       </c>
       <c r="H110">
-        <v>0.1334189882181398</v>
-      </c>
-      <c r="I110">
-        <v>0.1207774944818703</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1537861795184564</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.07702910718046227</v>
+        <v>0.08882431328892407</v>
       </c>
       <c r="C111">
-        <v>0.1371088583616402</v>
+        <v>0.1587893329174711</v>
       </c>
       <c r="D111">
-        <v>0.1229735867441445</v>
+        <v>0.1457904448622634</v>
       </c>
       <c r="E111">
-        <v>0.1328693334051045</v>
+        <v>0.1554273899409165</v>
       </c>
       <c r="F111">
-        <v>0.1489886818825265</v>
+        <v>0.165675973933205</v>
       </c>
       <c r="G111">
-        <v>0.08108861115456396</v>
+        <v>0.09411272101725721</v>
       </c>
       <c r="H111">
-        <v>0.1641025007915911</v>
-      </c>
-      <c r="I111">
-        <v>0.1358393204799667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1913798240399626</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0946730503324737</v>
+        <v>0.1053869924833846</v>
       </c>
       <c r="C112">
-        <v>0.149268191921114</v>
+        <v>0.1690098979378279</v>
       </c>
       <c r="D112">
-        <v>0.09779522862717668</v>
+        <v>0.1121787500478311</v>
       </c>
       <c r="E112">
-        <v>0.1001274984373601</v>
+        <v>0.1139630901972233</v>
       </c>
       <c r="F112">
-        <v>0.2011902555366886</v>
+        <v>0.228216837861795</v>
       </c>
       <c r="G112">
-        <v>0.07824916766749961</v>
+        <v>0.08793880003419588</v>
       </c>
       <c r="H112">
-        <v>0.1533539474172969</v>
-      </c>
-      <c r="I112">
-        <v>0.1253426600603905</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1833056314377423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1434254138631915</v>
+        <v>0.1622270100553958</v>
       </c>
       <c r="C113">
-        <v>0.1151352041077389</v>
+        <v>0.1295517394755532</v>
       </c>
       <c r="D113">
-        <v>0.1308612419131041</v>
+        <v>0.1503127427589795</v>
       </c>
       <c r="E113">
-        <v>0.1249683841781194</v>
+        <v>0.142021722627941</v>
       </c>
       <c r="F113">
-        <v>0.1167927630462376</v>
+        <v>0.1321538978601034</v>
       </c>
       <c r="G113">
-        <v>0.1389972554883889</v>
+        <v>0.1613844361190247</v>
       </c>
       <c r="H113">
-        <v>0.1071748526865241</v>
-      </c>
-      <c r="I113">
-        <v>0.1226448847166955</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1223484511030023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1517858720199178</v>
+        <v>0.1730979210869034</v>
       </c>
       <c r="C114">
-        <v>0.1152578678350519</v>
+        <v>0.1343772756548878</v>
       </c>
       <c r="D114">
-        <v>0.1370968178031396</v>
+        <v>0.1567762340632105</v>
       </c>
       <c r="E114">
-        <v>0.1307990784364344</v>
+        <v>0.1447120723305071</v>
       </c>
       <c r="F114">
-        <v>0.08335265631400636</v>
+        <v>0.09116569372503033</v>
       </c>
       <c r="G114">
-        <v>0.1620179975538554</v>
+        <v>0.1854242287698881</v>
       </c>
       <c r="H114">
-        <v>0.1010035626479481</v>
-      </c>
-      <c r="I114">
-        <v>0.1186861473896466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1144465743695728</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1234496557458952</v>
+        <v>0.1441598732679883</v>
       </c>
       <c r="C115">
-        <v>0.1288212313349726</v>
+        <v>0.1478761670206631</v>
       </c>
       <c r="D115">
-        <v>0.1257430514311488</v>
+        <v>0.1453451506389884</v>
       </c>
       <c r="E115">
-        <v>0.1379407443216387</v>
+        <v>0.1558670855549724</v>
       </c>
       <c r="F115">
-        <v>0.1146513062242766</v>
+        <v>0.1297893847633999</v>
       </c>
       <c r="G115">
-        <v>0.1113957570516508</v>
+        <v>0.1288272037714532</v>
       </c>
       <c r="H115">
-        <v>0.1297820401935185</v>
-      </c>
-      <c r="I115">
-        <v>0.1282162136968987</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1481351349825344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.172947301304112</v>
+        <v>0.1997545428704587</v>
       </c>
       <c r="C116">
-        <v>0.1035196211167609</v>
+        <v>0.12262048415521</v>
       </c>
       <c r="D116">
-        <v>0.1012513736126497</v>
+        <v>0.1251472227605891</v>
       </c>
       <c r="E116">
-        <v>0.1126042767057943</v>
+        <v>0.1351432419017638</v>
       </c>
       <c r="F116">
-        <v>0.06395746253933146</v>
+        <v>0.08890864000517838</v>
       </c>
       <c r="G116">
-        <v>0.1543716178399353</v>
+        <v>0.1801230187291314</v>
       </c>
       <c r="H116">
-        <v>0.1269985559259474</v>
-      </c>
-      <c r="I116">
-        <v>0.164349790955469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1483028495776686</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9418563222715614</v>
+        <v>0.947771053891631</v>
       </c>
       <c r="C117">
-        <v>0.01201497980595784</v>
+        <v>0.01153884746647872</v>
       </c>
       <c r="D117">
-        <v>0.001664999570429275</v>
+        <v>0.001599015652243451</v>
       </c>
       <c r="E117">
-        <v>0.00158597685458606</v>
+        <v>0.001523124584557706</v>
       </c>
       <c r="F117">
-        <v>0.001172341903629108</v>
+        <v>0.001125881905923249</v>
       </c>
       <c r="G117">
-        <v>0.006899760008369987</v>
+        <v>0.00662632873903593</v>
       </c>
       <c r="H117">
-        <v>0.03104594266096532</v>
-      </c>
-      <c r="I117">
-        <v>0.003759676924501303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.02981574776012998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1012047688160196</v>
+        <v>0.1212984680049359</v>
       </c>
       <c r="C118">
-        <v>0.1368805086669844</v>
+        <v>0.1547466987490276</v>
       </c>
       <c r="D118">
-        <v>0.1178869629642826</v>
+        <v>0.1383973837110701</v>
       </c>
       <c r="E118">
-        <v>0.1262291066997043</v>
+        <v>0.1507297348083644</v>
       </c>
       <c r="F118">
-        <v>0.1359400150569681</v>
+        <v>0.152860062453335</v>
       </c>
       <c r="G118">
-        <v>0.0996336154216971</v>
+        <v>0.1123966485903296</v>
       </c>
       <c r="H118">
-        <v>0.1505319157787367</v>
-      </c>
-      <c r="I118">
-        <v>0.1316931065956073</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1695710036829376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1530876496165072</v>
+        <v>0.1739027666624465</v>
       </c>
       <c r="C119">
-        <v>0.1177826574189875</v>
+        <v>0.1362601326821708</v>
       </c>
       <c r="D119">
-        <v>0.1119897652196623</v>
+        <v>0.1259962438253918</v>
       </c>
       <c r="E119">
-        <v>0.1238579765520155</v>
+        <v>0.1332969183422304</v>
       </c>
       <c r="F119">
-        <v>0.1274182366918178</v>
+        <v>0.1436419559027024</v>
       </c>
       <c r="G119">
-        <v>0.1651749325192886</v>
+        <v>0.1853117358012979</v>
       </c>
       <c r="H119">
-        <v>0.08779189509739212</v>
-      </c>
-      <c r="I119">
-        <v>0.112896886884329</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1015902467837603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1460329230382031</v>
+        <v>0.1657587924737054</v>
       </c>
       <c r="C120">
-        <v>0.1219288189373637</v>
+        <v>0.1372537254083776</v>
       </c>
       <c r="D120">
-        <v>0.1283139637533509</v>
+        <v>0.1474119487543904</v>
       </c>
       <c r="E120">
-        <v>0.1307080517627726</v>
+        <v>0.147735246148354</v>
       </c>
       <c r="F120">
-        <v>0.1165147469894711</v>
+        <v>0.1298641805959339</v>
       </c>
       <c r="G120">
-        <v>0.1277889298874987</v>
+        <v>0.1469247411449068</v>
       </c>
       <c r="H120">
-        <v>0.1116194613252267</v>
-      </c>
-      <c r="I120">
-        <v>0.1170931043061135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1250513654743318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.08817361954691172</v>
+        <v>0.1037713598293523</v>
       </c>
       <c r="C121">
-        <v>0.1453202273534674</v>
+        <v>0.161315081969572</v>
       </c>
       <c r="D121">
-        <v>0.09990948886314906</v>
+        <v>0.1128228794317578</v>
       </c>
       <c r="E121">
-        <v>0.1104259724084968</v>
+        <v>0.1240465763316254</v>
       </c>
       <c r="F121">
-        <v>0.1835244375193883</v>
+        <v>0.212740060548624</v>
       </c>
       <c r="G121">
-        <v>0.09720083462176113</v>
+        <v>0.1138261978297604</v>
       </c>
       <c r="H121">
-        <v>0.1487374309402643</v>
-      </c>
-      <c r="I121">
-        <v>0.1267079887465611</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1714778440593082</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.09125138828223163</v>
+        <v>0.1033653482973066</v>
       </c>
       <c r="C122">
-        <v>0.1425347819299467</v>
+        <v>0.1614751020484214</v>
       </c>
       <c r="D122">
-        <v>0.1227070831307912</v>
+        <v>0.1416392997504748</v>
       </c>
       <c r="E122">
-        <v>0.1260279969107546</v>
+        <v>0.1473471417058858</v>
       </c>
       <c r="F122">
-        <v>0.1501597678081973</v>
+        <v>0.1742702144930076</v>
       </c>
       <c r="G122">
-        <v>0.09508008591898949</v>
+        <v>0.1079083658787068</v>
       </c>
       <c r="H122">
-        <v>0.1438327404165274</v>
-      </c>
-      <c r="I122">
-        <v>0.1284061556025615</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1639945278261968</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1394051594980034</v>
+        <v>0.1546309136649168</v>
       </c>
       <c r="C123">
-        <v>0.1190426961702577</v>
+        <v>0.1359396539762518</v>
       </c>
       <c r="D123">
-        <v>0.126868313179585</v>
+        <v>0.1450291704084964</v>
       </c>
       <c r="E123">
-        <v>0.1238087420815972</v>
+        <v>0.1415981885527213</v>
       </c>
       <c r="F123">
-        <v>0.1124690964311797</v>
+        <v>0.1273680657324862</v>
       </c>
       <c r="G123">
-        <v>0.1382636810598543</v>
+        <v>0.158285726698993</v>
       </c>
       <c r="H123">
-        <v>0.118880411557123</v>
-      </c>
-      <c r="I123">
-        <v>0.1212619000223997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1371482809661345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1274917152672099</v>
+        <v>0.1557198974417796</v>
       </c>
       <c r="C124">
-        <v>0.1072384575229608</v>
+        <v>0.1408464220387111</v>
       </c>
       <c r="D124">
-        <v>0.09763753012212023</v>
+        <v>0.1334919627152756</v>
       </c>
       <c r="E124">
-        <v>0.1321562538223001</v>
+        <v>0.1684073450558094</v>
       </c>
       <c r="F124">
-        <v>0.06460705565030564</v>
+        <v>0.09325512099740418</v>
       </c>
       <c r="G124">
-        <v>0.1414468989228158</v>
+        <v>0.1821317854223531</v>
       </c>
       <c r="H124">
-        <v>0.1041635757419081</v>
-      </c>
-      <c r="I124">
-        <v>0.2252585129503795</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1261474663286669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.08318745734707121</v>
+        <v>0.09098019168204023</v>
       </c>
       <c r="C125">
-        <v>0.1374791770542805</v>
+        <v>0.1476369128796653</v>
       </c>
       <c r="D125">
-        <v>0.1238340884693783</v>
+        <v>0.151748168138299</v>
       </c>
       <c r="E125">
-        <v>0.1261721395833693</v>
+        <v>0.1510329891214331</v>
       </c>
       <c r="F125">
-        <v>0.1555044220586839</v>
+        <v>0.1680526034520156</v>
       </c>
       <c r="G125">
-        <v>0.08556798104981345</v>
+        <v>0.09517337064268867</v>
       </c>
       <c r="H125">
-        <v>0.1692911798335016</v>
-      </c>
-      <c r="I125">
-        <v>0.1189635546039018</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1953757640838581</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1450054813408428</v>
+        <v>0.1656295446987884</v>
       </c>
       <c r="C126">
-        <v>0.1250558987186492</v>
+        <v>0.140751639057672</v>
       </c>
       <c r="D126">
-        <v>0.1249322300345275</v>
+        <v>0.1359234170413511</v>
       </c>
       <c r="E126">
-        <v>0.1240535056383065</v>
+        <v>0.1399101785782813</v>
       </c>
       <c r="F126">
-        <v>0.1212263827136844</v>
+        <v>0.1374448035383147</v>
       </c>
       <c r="G126">
-        <v>0.1345921202434406</v>
+        <v>0.1553048543225476</v>
       </c>
       <c r="H126">
-        <v>0.1093575743878693</v>
-      </c>
-      <c r="I126">
-        <v>0.1157768069226796</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1250355627630449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1308296463127092</v>
+        <v>0.1420727228115002</v>
       </c>
       <c r="C127">
-        <v>0.1230370491717782</v>
+        <v>0.1347043878599109</v>
       </c>
       <c r="D127">
-        <v>0.1479682888123815</v>
+        <v>0.1646568096360532</v>
       </c>
       <c r="E127">
-        <v>0.1358604909287064</v>
+        <v>0.1524673245698397</v>
       </c>
       <c r="F127">
-        <v>0.1170949555324051</v>
+        <v>0.1296050744307965</v>
       </c>
       <c r="G127">
-        <v>0.1143357542286664</v>
+        <v>0.1258904448641233</v>
       </c>
       <c r="H127">
-        <v>0.1310348665682465</v>
-      </c>
-      <c r="I127">
-        <v>0.0998389484451068</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.1506032358277762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.09177719601240232</v>
+        <v>0.1064315415010189</v>
       </c>
       <c r="C128">
-        <v>0.140225405121236</v>
+        <v>0.16375285603996</v>
       </c>
       <c r="D128">
-        <v>0.1014428777324532</v>
+        <v>0.1160399199128736</v>
       </c>
       <c r="E128">
-        <v>0.1193972276352597</v>
+        <v>0.1351618189644017</v>
       </c>
       <c r="F128">
-        <v>0.1690953002593042</v>
+        <v>0.1938128089277581</v>
       </c>
       <c r="G128">
-        <v>0.0936251657809575</v>
+        <v>0.1105962239214114</v>
       </c>
       <c r="H128">
-        <v>0.1519613822241924</v>
-      </c>
-      <c r="I128">
-        <v>0.1324754452341947</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1742048307325764</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1165867517218551</v>
+        <v>0.1357083190184263</v>
       </c>
       <c r="C129">
-        <v>0.1149786913571738</v>
+        <v>0.1288625517319536</v>
       </c>
       <c r="D129">
-        <v>0.1365029261331464</v>
+        <v>0.1613976241631463</v>
       </c>
       <c r="E129">
-        <v>0.113547400067514</v>
+        <v>0.1300178464579101</v>
       </c>
       <c r="F129">
-        <v>0.1321667874416126</v>
+        <v>0.152997024526033</v>
       </c>
       <c r="G129">
-        <v>0.1211665492493429</v>
+        <v>0.140992725627521</v>
       </c>
       <c r="H129">
-        <v>0.1311812719569647</v>
-      </c>
-      <c r="I129">
-        <v>0.1338696220723904</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1500239084750098</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1525053474995626</v>
+        <v>0.1743918373788319</v>
       </c>
       <c r="C130">
-        <v>0.1217465708574345</v>
+        <v>0.1450881970718233</v>
       </c>
       <c r="D130">
-        <v>0.1208950292402864</v>
+        <v>0.1480763456039525</v>
       </c>
       <c r="E130">
-        <v>0.1202926361171842</v>
+        <v>0.13933232544868</v>
       </c>
       <c r="F130">
-        <v>0.1054880864799988</v>
+        <v>0.124199028299344</v>
       </c>
       <c r="G130">
-        <v>0.134171377234849</v>
+        <v>0.1573530255194801</v>
       </c>
       <c r="H130">
-        <v>0.09670566615308566</v>
-      </c>
-      <c r="I130">
-        <v>0.148195286417599</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1115592406778881</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.08630764519754645</v>
+        <v>0.1012054091694852</v>
       </c>
       <c r="C131">
-        <v>0.1355276601772979</v>
+        <v>0.1538528923306631</v>
       </c>
       <c r="D131">
-        <v>0.1263415611964428</v>
+        <v>0.1509888671676143</v>
       </c>
       <c r="E131">
-        <v>0.1284357468156262</v>
+        <v>0.1513760416568403</v>
       </c>
       <c r="F131">
-        <v>0.1385026158702768</v>
+        <v>0.1517709030466725</v>
       </c>
       <c r="G131">
-        <v>0.09998456885062214</v>
+        <v>0.1200373231278071</v>
       </c>
       <c r="H131">
-        <v>0.1465985718365604</v>
-      </c>
-      <c r="I131">
-        <v>0.1383016300556273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1707685635009175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1201530054655063</v>
+        <v>0.1401296416830674</v>
       </c>
       <c r="C132">
-        <v>0.1198843824353663</v>
+        <v>0.1368893692699267</v>
       </c>
       <c r="D132">
-        <v>0.1196380419760608</v>
+        <v>0.1356568905485774</v>
       </c>
       <c r="E132">
-        <v>0.1142364387372206</v>
+        <v>0.1313989380409296</v>
       </c>
       <c r="F132">
-        <v>0.1240479410626695</v>
+        <v>0.1414245158369342</v>
       </c>
       <c r="G132">
-        <v>0.1165119838751879</v>
+        <v>0.1367913567712733</v>
       </c>
       <c r="H132">
-        <v>0.1554147781170528</v>
-      </c>
-      <c r="I132">
-        <v>0.1301134283309359</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1777092878492914</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.07387361167418181</v>
+        <v>0.08128313781587718</v>
       </c>
       <c r="C133">
-        <v>0.1321254856053697</v>
+        <v>0.1538797403730815</v>
       </c>
       <c r="D133">
-        <v>0.1094617904516216</v>
+        <v>0.1201281979050656</v>
       </c>
       <c r="E133">
-        <v>0.1308829529032246</v>
+        <v>0.1441731457680466</v>
       </c>
       <c r="F133">
-        <v>0.174161598081175</v>
+        <v>0.2079236455470356</v>
       </c>
       <c r="G133">
-        <v>0.07467495521404499</v>
+        <v>0.08198412751150039</v>
       </c>
       <c r="H133">
-        <v>0.1772738583734263</v>
-      </c>
-      <c r="I133">
-        <v>0.1275457476969559</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.210628005079393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.08958610076201784</v>
+        <v>0.1018748033464749</v>
       </c>
       <c r="C134">
-        <v>0.1299940699029344</v>
+        <v>0.1461382264527623</v>
       </c>
       <c r="D134">
-        <v>0.130623232547234</v>
+        <v>0.1502944237227868</v>
       </c>
       <c r="E134">
-        <v>0.1352601617205808</v>
+        <v>0.1565161071935864</v>
       </c>
       <c r="F134">
-        <v>0.1547888239721903</v>
+        <v>0.1785692961520538</v>
       </c>
       <c r="G134">
-        <v>0.08723391903303207</v>
+        <v>0.0994251144580907</v>
       </c>
       <c r="H134">
-        <v>0.1492116133612781</v>
-      </c>
-      <c r="I134">
-        <v>0.1233020787007324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1671820286742452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.121376222295566</v>
+        <v>0.1358645198925028</v>
       </c>
       <c r="C135">
-        <v>0.1237922650729488</v>
+        <v>0.1419063657089009</v>
       </c>
       <c r="D135">
-        <v>0.1321712882888898</v>
+        <v>0.1525285638644224</v>
       </c>
       <c r="E135">
-        <v>0.124288436739296</v>
+        <v>0.1444415949730869</v>
       </c>
       <c r="F135">
-        <v>0.1289579546473036</v>
+        <v>0.1494696163095016</v>
       </c>
       <c r="G135">
-        <v>0.1267561960030233</v>
+        <v>0.1420380966763611</v>
       </c>
       <c r="H135">
-        <v>0.1160637722723124</v>
-      </c>
-      <c r="I135">
-        <v>0.1265938646806602</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1337512425752244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.160472442854128</v>
+        <v>0.1839431242097884</v>
       </c>
       <c r="C136">
-        <v>0.1291206361469749</v>
+        <v>0.1459140067753778</v>
       </c>
       <c r="D136">
-        <v>0.1152757730130677</v>
+        <v>0.1322879298933602</v>
       </c>
       <c r="E136">
-        <v>0.1135258029402194</v>
+        <v>0.1313520622814056</v>
       </c>
       <c r="F136">
-        <v>0.09012504528259047</v>
+        <v>0.104931921221837</v>
       </c>
       <c r="G136">
-        <v>0.1497268078391998</v>
+        <v>0.1729870839099409</v>
       </c>
       <c r="H136">
-        <v>0.1112963949816948</v>
-      </c>
-      <c r="I136">
-        <v>0.1304570969421251</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1285838717082902</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.151529198379932</v>
+        <v>0.170371968362769</v>
       </c>
       <c r="C137">
-        <v>0.1173588613483945</v>
+        <v>0.1316809558040924</v>
       </c>
       <c r="D137">
-        <v>0.1362821552123845</v>
+        <v>0.1556656010977606</v>
       </c>
       <c r="E137">
-        <v>0.1174876890423833</v>
+        <v>0.1369497431048803</v>
       </c>
       <c r="F137">
-        <v>0.1211669916686943</v>
+        <v>0.1370791089130063</v>
       </c>
       <c r="G137">
-        <v>0.1289705137990831</v>
+        <v>0.1476100408357491</v>
       </c>
       <c r="H137">
-        <v>0.1047731866844978</v>
-      </c>
-      <c r="I137">
-        <v>0.1224314038646305</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1206425818817422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1304627274322996</v>
+        <v>0.1496048638163658</v>
       </c>
       <c r="C138">
-        <v>0.1216156050511276</v>
+        <v>0.138327064494314</v>
       </c>
       <c r="D138">
-        <v>0.1258698213451422</v>
+        <v>0.1427676694257282</v>
       </c>
       <c r="E138">
-        <v>0.1271940045049393</v>
+        <v>0.1462366325608976</v>
       </c>
       <c r="F138">
-        <v>0.1251787292954734</v>
+        <v>0.1430325931020798</v>
       </c>
       <c r="G138">
-        <v>0.1374290708881807</v>
+        <v>0.1517743998095093</v>
       </c>
       <c r="H138">
-        <v>0.1144458783184906</v>
-      </c>
-      <c r="I138">
-        <v>0.1178041631643465</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1282567767911054</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1433980576439418</v>
+        <v>0.1652851973146792</v>
       </c>
       <c r="C139">
-        <v>0.1249291730527953</v>
+        <v>0.1392729854821496</v>
       </c>
       <c r="D139">
-        <v>0.1198870276615336</v>
+        <v>0.1348739890959951</v>
       </c>
       <c r="E139">
-        <v>0.12249529296479</v>
+        <v>0.1370103665481316</v>
       </c>
       <c r="F139">
-        <v>0.1205914267136716</v>
+        <v>0.1377144692742971</v>
       </c>
       <c r="G139">
-        <v>0.1353403056744829</v>
+        <v>0.149707932661728</v>
       </c>
       <c r="H139">
-        <v>0.118821804866686</v>
-      </c>
-      <c r="I139">
-        <v>0.1145369114220987</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1361350596230194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1420496366151344</v>
+        <v>0.1580617201732302</v>
       </c>
       <c r="C140">
-        <v>0.1238882645374203</v>
+        <v>0.1418940986483114</v>
       </c>
       <c r="D140">
-        <v>0.1306907574126568</v>
+        <v>0.1488516347468196</v>
       </c>
       <c r="E140">
-        <v>0.1214516381473192</v>
+        <v>0.1344142512832975</v>
       </c>
       <c r="F140">
-        <v>0.1221604382261133</v>
+        <v>0.1408896037375122</v>
       </c>
       <c r="G140">
-        <v>0.1173103268206971</v>
+        <v>0.1343138087409693</v>
       </c>
       <c r="H140">
-        <v>0.1263921298916655</v>
-      </c>
-      <c r="I140">
-        <v>0.1160568083489936</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1415748826698598</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1554097827053309</v>
+        <v>0.1757983413514955</v>
       </c>
       <c r="C141">
-        <v>0.1238363901875504</v>
+        <v>0.1400711771198278</v>
       </c>
       <c r="D141">
-        <v>0.1284516034271938</v>
+        <v>0.1406790858576697</v>
       </c>
       <c r="E141">
-        <v>0.1294263200525454</v>
+        <v>0.1479472598654875</v>
       </c>
       <c r="F141">
-        <v>0.1287351359450909</v>
+        <v>0.1466790504093299</v>
       </c>
       <c r="G141">
-        <v>0.1436664905699526</v>
+        <v>0.1572903887644222</v>
       </c>
       <c r="H141">
-        <v>0.08505056915393719</v>
-      </c>
-      <c r="I141">
-        <v>0.1054237079583989</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.0915346966317674</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.107056593253358</v>
+        <v>0.1280827903603433</v>
       </c>
       <c r="C142">
-        <v>0.128652199303859</v>
+        <v>0.1453531963205551</v>
       </c>
       <c r="D142">
-        <v>0.1443457010478096</v>
+        <v>0.1708989672775655</v>
       </c>
       <c r="E142">
-        <v>0.1230750440454596</v>
+        <v>0.1398817480198514</v>
       </c>
       <c r="F142">
-        <v>0.1254643437490003</v>
+        <v>0.1450559078627824</v>
       </c>
       <c r="G142">
-        <v>0.08649102328497607</v>
+        <v>0.09968480877217806</v>
       </c>
       <c r="H142">
-        <v>0.1460995581465396</v>
-      </c>
-      <c r="I142">
-        <v>0.1388155371689978</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.171042581386724</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.2078382254574723</v>
+        <v>0.2559352911090941</v>
       </c>
       <c r="C143">
-        <v>0.1100448469683384</v>
+        <v>0.1167720469490316</v>
       </c>
       <c r="D143">
-        <v>0.06230320559945323</v>
+        <v>0.05444123416949118</v>
       </c>
       <c r="E143">
-        <v>0.08408808628439018</v>
+        <v>0.07869946374314422</v>
       </c>
       <c r="F143">
-        <v>0.02728852782607167</v>
+        <v>0.02314840774828282</v>
       </c>
       <c r="G143">
-        <v>0.206494847625396</v>
+        <v>0.2476898873671577</v>
       </c>
       <c r="H143">
-        <v>0.1858295857309711</v>
-      </c>
-      <c r="I143">
-        <v>0.1161126745079071</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.2233136689137985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1562283824149942</v>
+        <v>0.1735519465663695</v>
       </c>
       <c r="C144">
-        <v>0.1009946739551419</v>
+        <v>0.1194717016242516</v>
       </c>
       <c r="D144">
-        <v>0.130347958664222</v>
+        <v>0.1416330450579929</v>
       </c>
       <c r="E144">
-        <v>0.1249749689889151</v>
+        <v>0.1428522970430283</v>
       </c>
       <c r="F144">
-        <v>0.1019797468401687</v>
+        <v>0.114187833287644</v>
       </c>
       <c r="G144">
-        <v>0.1456302345587224</v>
+        <v>0.1667562320201841</v>
       </c>
       <c r="H144">
-        <v>0.1202368471660723</v>
-      </c>
-      <c r="I144">
-        <v>0.1196071874117633</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1415469444005295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1259168134919212</v>
+        <v>0.1494409366277211</v>
       </c>
       <c r="C145">
-        <v>0.1308156409864004</v>
+        <v>0.1540275476236445</v>
       </c>
       <c r="D145">
-        <v>0.1101669745105514</v>
+        <v>0.1350020937571783</v>
       </c>
       <c r="E145">
-        <v>0.1148748513504725</v>
+        <v>0.1394835514808606</v>
       </c>
       <c r="F145">
-        <v>0.08326214295266707</v>
+        <v>0.09646914288182783</v>
       </c>
       <c r="G145">
-        <v>0.148101937443426</v>
+        <v>0.1745657258720618</v>
       </c>
       <c r="H145">
-        <v>0.1305370631730251</v>
-      </c>
-      <c r="I145">
-        <v>0.1563245760915364</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1510110017567059</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.07054582665944682</v>
+        <v>0.07919605358064721</v>
       </c>
       <c r="C146">
-        <v>0.161361973842943</v>
+        <v>0.1834283455099759</v>
       </c>
       <c r="D146">
-        <v>0.08570921838081842</v>
+        <v>0.09544058751472496</v>
       </c>
       <c r="E146">
-        <v>0.1089476866256131</v>
+        <v>0.1218901490144891</v>
       </c>
       <c r="F146">
-        <v>0.206760095308893</v>
+        <v>0.2289226054110921</v>
       </c>
       <c r="G146">
-        <v>0.07898152573908267</v>
+        <v>0.09151971130157917</v>
       </c>
       <c r="H146">
-        <v>0.1720664102761551</v>
-      </c>
-      <c r="I146">
-        <v>0.1156272631670478</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1996025476674916</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1431120004221273</v>
+        <v>0.1629537152593707</v>
       </c>
       <c r="C147">
-        <v>0.1071789810046828</v>
+        <v>0.1189146788297422</v>
       </c>
       <c r="D147">
-        <v>0.118176288314563</v>
+        <v>0.1517161974721987</v>
       </c>
       <c r="E147">
-        <v>0.1433890202636464</v>
+        <v>0.1739573590438922</v>
       </c>
       <c r="F147">
-        <v>0.1008175386594942</v>
+        <v>0.1169600351428901</v>
       </c>
       <c r="G147">
-        <v>0.1416901299090544</v>
+        <v>0.1779785529666447</v>
       </c>
       <c r="H147">
-        <v>0.09206287337745676</v>
-      </c>
-      <c r="I147">
-        <v>0.1535731680489752</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.09751946128526136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1310206607223892</v>
+        <v>0.1497776071932656</v>
       </c>
       <c r="C148">
-        <v>0.1261455916134663</v>
+        <v>0.1427152682864715</v>
       </c>
       <c r="D148">
-        <v>0.1328391859156359</v>
+        <v>0.1527010973879167</v>
       </c>
       <c r="E148">
-        <v>0.1246781758795706</v>
+        <v>0.1419234215650811</v>
       </c>
       <c r="F148">
-        <v>0.1356346781464154</v>
+        <v>0.1558396051978337</v>
       </c>
       <c r="G148">
-        <v>0.1249564873792196</v>
+        <v>0.1380740000789422</v>
       </c>
       <c r="H148">
-        <v>0.1050182208383869</v>
-      </c>
-      <c r="I148">
-        <v>0.119706999504916</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1189690002904891</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.155656521714838</v>
+        <v>0.1772927380374819</v>
       </c>
       <c r="C149">
-        <v>0.1247011226406744</v>
+        <v>0.140615104157177</v>
       </c>
       <c r="D149">
-        <v>0.1265185767618116</v>
+        <v>0.1427592748409442</v>
       </c>
       <c r="E149">
-        <v>0.1282860088523043</v>
+        <v>0.1428241665975734</v>
       </c>
       <c r="F149">
-        <v>0.1144927608469638</v>
+        <v>0.1263183383012073</v>
       </c>
       <c r="G149">
-        <v>0.1342123634793735</v>
+        <v>0.15179312163208</v>
       </c>
       <c r="H149">
-        <v>0.1037368733807958</v>
-      </c>
-      <c r="I149">
-        <v>0.1123957723232386</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.1183972564335361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.09380244181346341</v>
+        <v>0.1136900195578483</v>
       </c>
       <c r="C150">
-        <v>0.1373982949138891</v>
+        <v>0.1578071645550215</v>
       </c>
       <c r="D150">
-        <v>0.1184748477438724</v>
+        <v>0.1400705481735159</v>
       </c>
       <c r="E150">
-        <v>0.1230036632269316</v>
+        <v>0.1446756025991105</v>
       </c>
       <c r="F150">
-        <v>0.1431433604879959</v>
+        <v>0.1669771346392991</v>
       </c>
       <c r="G150">
-        <v>0.1076126953688642</v>
+        <v>0.1247441042016381</v>
       </c>
       <c r="H150">
-        <v>0.1318069113625918</v>
-      </c>
-      <c r="I150">
-        <v>0.1447577850823914</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.1520354262735665</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.1558827098345876</v>
+        <v>0.1736503371616798</v>
       </c>
       <c r="C151">
-        <v>0.1168497341993193</v>
+        <v>0.1334439756290167</v>
       </c>
       <c r="D151">
-        <v>0.1243277788634684</v>
+        <v>0.1429140492690245</v>
       </c>
       <c r="E151">
-        <v>0.1125966678625935</v>
+        <v>0.1286882521195466</v>
       </c>
       <c r="F151">
-        <v>0.1274214051296329</v>
+        <v>0.1479735922160128</v>
       </c>
       <c r="G151">
-        <v>0.1236766368779608</v>
+        <v>0.1411547026923334</v>
       </c>
       <c r="H151">
-        <v>0.1178306877040823</v>
-      </c>
-      <c r="I151">
-        <v>0.1214143795283553</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.1321750909123862</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1459166876569194</v>
+        <v>0.1611910699736065</v>
       </c>
       <c r="C152">
-        <v>0.1055485101349237</v>
+        <v>0.1197760778551997</v>
       </c>
       <c r="D152">
-        <v>0.1333428245052183</v>
+        <v>0.1484043399873081</v>
       </c>
       <c r="E152">
-        <v>0.1354766342624223</v>
+        <v>0.1503513826624235</v>
       </c>
       <c r="F152">
-        <v>0.1153038654519165</v>
+        <v>0.1298023107070909</v>
       </c>
       <c r="G152">
-        <v>0.128412701930482</v>
+        <v>0.14214672793712</v>
       </c>
       <c r="H152">
-        <v>0.1301698010093835</v>
-      </c>
-      <c r="I152">
-        <v>0.1058289750487343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1483280908772514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1237665060567503</v>
+        <v>0.143154591400433</v>
       </c>
       <c r="C153">
-        <v>0.1117606344928117</v>
+        <v>0.1309139074479777</v>
       </c>
       <c r="D153">
-        <v>0.1452637867082047</v>
+        <v>0.158074145846196</v>
       </c>
       <c r="E153">
-        <v>0.1309483676500417</v>
+        <v>0.1460798728215719</v>
       </c>
       <c r="F153">
-        <v>0.09809909097326587</v>
+        <v>0.116743417234302</v>
       </c>
       <c r="G153">
-        <v>0.1293816717299722</v>
+        <v>0.1496681434572592</v>
       </c>
       <c r="H153">
-        <v>0.1361581162810772</v>
-      </c>
-      <c r="I153">
-        <v>0.1246218261078762</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.1553659217922601</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.09087955524941077</v>
+        <v>0.1020687336753034</v>
       </c>
       <c r="C154">
-        <v>0.1388025686520333</v>
+        <v>0.159306352576222</v>
       </c>
       <c r="D154">
-        <v>0.09515190449082948</v>
+        <v>0.1035425583203648</v>
       </c>
       <c r="E154">
-        <v>0.09816619117139337</v>
+        <v>0.1064128509855717</v>
       </c>
       <c r="F154">
-        <v>0.1991647057375837</v>
+        <v>0.2281576561978566</v>
       </c>
       <c r="G154">
-        <v>0.09359918646158283</v>
+        <v>0.1075043490441822</v>
       </c>
       <c r="H154">
-        <v>0.1703192784199559</v>
-      </c>
-      <c r="I154">
-        <v>0.1139166098172106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.1930074992004994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.09292821649932431</v>
+        <v>0.1097477228843731</v>
       </c>
       <c r="C155">
-        <v>0.1443623014078503</v>
+        <v>0.1646670615643399</v>
       </c>
       <c r="D155">
-        <v>0.112317358593766</v>
+        <v>0.1232994523980171</v>
       </c>
       <c r="E155">
-        <v>0.1116495684466611</v>
+        <v>0.1233388927406974</v>
       </c>
       <c r="F155">
-        <v>0.1768169281185486</v>
+        <v>0.2176073680159884</v>
       </c>
       <c r="G155">
-        <v>0.0853392907277124</v>
+        <v>0.09450248652087812</v>
       </c>
       <c r="H155">
-        <v>0.1494091617669523</v>
-      </c>
-      <c r="I155">
-        <v>0.127177174439185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1668370158757059</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1258099059687501</v>
+        <v>0.1446856363965487</v>
       </c>
       <c r="C156">
-        <v>0.1169139544081408</v>
+        <v>0.1325243235381715</v>
       </c>
       <c r="D156">
-        <v>0.1184853616641213</v>
+        <v>0.1357769215729913</v>
       </c>
       <c r="E156">
-        <v>0.1110546758465136</v>
+        <v>0.1246852606273607</v>
       </c>
       <c r="F156">
-        <v>0.134210925977092</v>
+        <v>0.1525079795213581</v>
       </c>
       <c r="G156">
-        <v>0.1243694756131025</v>
+        <v>0.1437041330752758</v>
       </c>
       <c r="H156">
-        <v>0.1427307724932907</v>
-      </c>
-      <c r="I156">
-        <v>0.1264249280289891</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1661157452682939</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1475772279208547</v>
+        <v>0.1658919228764402</v>
       </c>
       <c r="C157">
-        <v>0.1431481861155749</v>
+        <v>0.1652717266843541</v>
       </c>
       <c r="D157">
-        <v>0.1134326663171239</v>
+        <v>0.1416505604016994</v>
       </c>
       <c r="E157">
-        <v>0.1066072393053266</v>
+        <v>0.1227045185616236</v>
       </c>
       <c r="F157">
-        <v>0.106508309880882</v>
+        <v>0.1266994642253269</v>
       </c>
       <c r="G157">
-        <v>0.1364720602543269</v>
+        <v>0.1615435648195302</v>
       </c>
       <c r="H157">
-        <v>0.102423430577445</v>
-      </c>
-      <c r="I157">
-        <v>0.1438308796284661</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1162382424310256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1067140172167606</v>
+        <v>0.1207817459121319</v>
       </c>
       <c r="C158">
-        <v>0.136920339074085</v>
+        <v>0.1574660980856124</v>
       </c>
       <c r="D158">
-        <v>0.127079111395569</v>
+        <v>0.1434380395828663</v>
       </c>
       <c r="E158">
-        <v>0.1217739313663769</v>
+        <v>0.1411220463575007</v>
       </c>
       <c r="F158">
-        <v>0.1518172081790671</v>
+        <v>0.1771913833246598</v>
       </c>
       <c r="G158">
-        <v>0.1053307013378375</v>
+        <v>0.1191917827242721</v>
       </c>
       <c r="H158">
-        <v>0.1248060764753409</v>
-      </c>
-      <c r="I158">
-        <v>0.1255586149549632</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.1408089040129568</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1541059368685832</v>
+        <v>0.1720250841195362</v>
       </c>
       <c r="C159">
-        <v>0.1218569267294179</v>
+        <v>0.1350925433010418</v>
       </c>
       <c r="D159">
-        <v>0.1241245508544106</v>
+        <v>0.1396942849861851</v>
       </c>
       <c r="E159">
-        <v>0.1202359159284795</v>
+        <v>0.1351037258952894</v>
       </c>
       <c r="F159">
-        <v>0.1222843278554085</v>
+        <v>0.1353758946691462</v>
       </c>
       <c r="G159">
-        <v>0.1281978940227593</v>
+        <v>0.1442230566469266</v>
       </c>
       <c r="H159">
-        <v>0.121849210694886</v>
-      </c>
-      <c r="I159">
-        <v>0.107345237046055</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1384854103818747</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1572296949333775</v>
+        <v>0.1797292384358861</v>
       </c>
       <c r="C160">
-        <v>0.1260047099728946</v>
+        <v>0.1432585687122238</v>
       </c>
       <c r="D160">
-        <v>0.1361428633908723</v>
+        <v>0.1563849605652873</v>
       </c>
       <c r="E160">
-        <v>0.116621184708209</v>
+        <v>0.1307920664039054</v>
       </c>
       <c r="F160">
-        <v>0.1076024932489048</v>
+        <v>0.1227934460439852</v>
       </c>
       <c r="G160">
-        <v>0.136549385479925</v>
+        <v>0.1550635403345346</v>
       </c>
       <c r="H160">
-        <v>0.1013625242021535</v>
-      </c>
-      <c r="I160">
-        <v>0.1184871440636634</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.1119781795041775</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.09794090965244499</v>
+        <v>0.1154230240824439</v>
       </c>
       <c r="C161">
-        <v>0.1162852953347802</v>
+        <v>0.1438035051408873</v>
       </c>
       <c r="D161">
-        <v>0.1358548680866531</v>
+        <v>0.1571151178233484</v>
       </c>
       <c r="E161">
-        <v>0.1291897298035559</v>
+        <v>0.1487882224107763</v>
       </c>
       <c r="F161">
-        <v>0.1259032488011974</v>
+        <v>0.1475644091625756</v>
       </c>
       <c r="G161">
-        <v>0.1215034246668554</v>
+        <v>0.1390671600634839</v>
       </c>
       <c r="H161">
-        <v>0.1212202257149263</v>
-      </c>
-      <c r="I161">
-        <v>0.1521022979395867</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1482385613164848</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1486385510486936</v>
+        <v>0.1733244774115217</v>
       </c>
       <c r="C162">
-        <v>0.1203916533169245</v>
+        <v>0.1350488865049229</v>
       </c>
       <c r="D162">
-        <v>0.1297252848244271</v>
+        <v>0.1437587882681989</v>
       </c>
       <c r="E162">
-        <v>0.1273410938364607</v>
+        <v>0.1416674439265629</v>
       </c>
       <c r="F162">
-        <v>0.1114035346273568</v>
+        <v>0.126977914465155</v>
       </c>
       <c r="G162">
-        <v>0.1390016378601779</v>
+        <v>0.1547981403982833</v>
       </c>
       <c r="H162">
-        <v>0.1086665587579424</v>
-      </c>
-      <c r="I162">
-        <v>0.1148316857280172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1244243490253555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1578078964580739</v>
+        <v>0.1771296269891985</v>
       </c>
       <c r="C163">
-        <v>0.1238120588456661</v>
+        <v>0.1404715931178354</v>
       </c>
       <c r="D163">
-        <v>0.1154676705441454</v>
+        <v>0.1324230064990635</v>
       </c>
       <c r="E163">
-        <v>0.1163226099627744</v>
+        <v>0.1313861592622964</v>
       </c>
       <c r="F163">
-        <v>0.1248605096835385</v>
+        <v>0.1428161110937449</v>
       </c>
       <c r="G163">
-        <v>0.1273093555074167</v>
+        <v>0.1471962118006726</v>
       </c>
       <c r="H163">
-        <v>0.1166698359726074</v>
-      </c>
-      <c r="I163">
-        <v>0.1177500630257775</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1285772912371886</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.2979974590622921</v>
+        <v>0.3412621272922556</v>
       </c>
       <c r="C164">
-        <v>0.08188127157208284</v>
+        <v>0.09376813446458329</v>
       </c>
       <c r="D164">
-        <v>0.03569867815511638</v>
+        <v>0.03963843826414745</v>
       </c>
       <c r="E164">
-        <v>0.0282361927591251</v>
+        <v>0.03284096937001597</v>
       </c>
       <c r="F164">
-        <v>0.05188987176146581</v>
+        <v>0.06291311741222867</v>
       </c>
       <c r="G164">
-        <v>0.1196914774098849</v>
+        <v>0.13706758815807</v>
       </c>
       <c r="H164">
-        <v>0.2554262814866211</v>
-      </c>
-      <c r="I164">
-        <v>0.1291787677934118</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.292509625038699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8820172104019954</v>
+        <v>0.9069738816437188</v>
       </c>
       <c r="C165">
-        <v>0.02336492920535171</v>
+        <v>0.01752168433764744</v>
       </c>
       <c r="D165">
-        <v>0.003693457807665926</v>
+        <v>0.002165113494981697</v>
       </c>
       <c r="E165">
-        <v>0.003618082290835171</v>
+        <v>0.002027236281809308</v>
       </c>
       <c r="F165">
-        <v>0.002472615062373472</v>
+        <v>0.001624354347165608</v>
       </c>
       <c r="G165">
-        <v>0.01657155669434666</v>
+        <v>0.01065816953491515</v>
       </c>
       <c r="H165">
-        <v>0.05597784517067383</v>
-      </c>
-      <c r="I165">
-        <v>0.01228430336675785</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.05902956035976175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.09088468570458805</v>
+        <v>0.101380343851752</v>
       </c>
       <c r="C166">
-        <v>0.135326421586289</v>
+        <v>0.1511180191324639</v>
       </c>
       <c r="D166">
-        <v>0.1266502114509</v>
+        <v>0.1499078157702467</v>
       </c>
       <c r="E166">
-        <v>0.1266710351449669</v>
+        <v>0.1491962046298998</v>
       </c>
       <c r="F166">
-        <v>0.1366629823138994</v>
+        <v>0.1551856411020255</v>
       </c>
       <c r="G166">
-        <v>0.09446538583955874</v>
+        <v>0.1131497333039952</v>
       </c>
       <c r="H166">
-        <v>0.1561124842481135</v>
-      </c>
-      <c r="I166">
-        <v>0.1332267937116843</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.1800622422096169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1298714765592787</v>
+        <v>0.1474534913825473</v>
       </c>
       <c r="C167">
-        <v>0.1360493136590015</v>
+        <v>0.1559703094022836</v>
       </c>
       <c r="D167">
-        <v>0.1338393407028509</v>
+        <v>0.1527686734174794</v>
       </c>
       <c r="E167">
-        <v>0.1335008135902872</v>
+        <v>0.1532319568135933</v>
       </c>
       <c r="F167">
-        <v>0.1226318373169668</v>
+        <v>0.138571708630171</v>
       </c>
       <c r="G167">
-        <v>0.1298192351521779</v>
+        <v>0.1448102003520297</v>
       </c>
       <c r="H167">
-        <v>0.09584632350127853</v>
-      </c>
-      <c r="I167">
-        <v>0.1184416595181584</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1071936600018957</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.04949421199244539</v>
+        <v>0.05504863640023756</v>
       </c>
       <c r="C168">
-        <v>0.1618761269304563</v>
+        <v>0.1880341819612158</v>
       </c>
       <c r="D168">
-        <v>0.115821721999966</v>
+        <v>0.1299573396059136</v>
       </c>
       <c r="E168">
-        <v>0.09655784783645649</v>
+        <v>0.1112232568004732</v>
       </c>
       <c r="F168">
-        <v>0.1714683063448593</v>
+        <v>0.1863083699529045</v>
       </c>
       <c r="G168">
-        <v>0.09948932561337838</v>
+        <v>0.1127875367167729</v>
       </c>
       <c r="H168">
-        <v>0.1865964921452776</v>
-      </c>
-      <c r="I168">
-        <v>0.1186959671371605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.2166406785624823</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1553996088479234</v>
+        <v>0.1790014799587852</v>
       </c>
       <c r="C169">
-        <v>0.1311710434820755</v>
+        <v>0.1573120725175365</v>
       </c>
       <c r="D169">
-        <v>0.09501298975151666</v>
+        <v>0.1132385266854657</v>
       </c>
       <c r="E169">
-        <v>0.1035354373755707</v>
+        <v>0.1171116034086222</v>
       </c>
       <c r="F169">
-        <v>0.05859732943396563</v>
+        <v>0.06860915642552486</v>
       </c>
       <c r="G169">
-        <v>0.1763998727415332</v>
+        <v>0.2171834087182194</v>
       </c>
       <c r="H169">
-        <v>0.1285871921515828</v>
-      </c>
-      <c r="I169">
-        <v>0.1512965262158321</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.1475437522858462</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.2305423997498421</v>
+        <v>0.2733830723782709</v>
       </c>
       <c r="C170">
-        <v>0.1354510142804645</v>
+        <v>0.1565566213449574</v>
       </c>
       <c r="D170">
-        <v>0.05286651078932358</v>
+        <v>0.06292984142876835</v>
       </c>
       <c r="E170">
-        <v>0.06725447431516467</v>
+        <v>0.07906854121547036</v>
       </c>
       <c r="F170">
-        <v>0.03098418904522565</v>
+        <v>0.03715484355807634</v>
       </c>
       <c r="G170">
-        <v>0.1714633833848343</v>
+        <v>0.1973324025189373</v>
       </c>
       <c r="H170">
-        <v>0.1646358756433259</v>
-      </c>
-      <c r="I170">
-        <v>0.1468021527918194</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.1935746775555192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1544664051056424</v>
+        <v>0.1718862788329072</v>
       </c>
       <c r="C171">
-        <v>0.119862505565504</v>
+        <v>0.1352723371092481</v>
       </c>
       <c r="D171">
-        <v>0.1248978923722396</v>
+        <v>0.1431593847395196</v>
       </c>
       <c r="E171">
-        <v>0.1203174761059081</v>
+        <v>0.1320809013676414</v>
       </c>
       <c r="F171">
-        <v>0.1239667563057151</v>
+        <v>0.1396409903182753</v>
       </c>
       <c r="G171">
-        <v>0.1339820029437193</v>
+        <v>0.1518833821943607</v>
       </c>
       <c r="H171">
-        <v>0.1129033521779243</v>
-      </c>
-      <c r="I171">
-        <v>0.1096036094233471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.1260767254380478</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.08776113937343745</v>
+        <v>0.0966947902899308</v>
       </c>
       <c r="C172">
-        <v>0.1491429566313104</v>
+        <v>0.1728151457555402</v>
       </c>
       <c r="D172">
-        <v>0.09050843094101862</v>
+        <v>0.1012075653792835</v>
       </c>
       <c r="E172">
-        <v>0.1116499688001139</v>
+        <v>0.1270884964560137</v>
       </c>
       <c r="F172">
-        <v>0.1898506355226301</v>
+        <v>0.2137902782111218</v>
       </c>
       <c r="G172">
-        <v>0.09870910601067541</v>
+        <v>0.112301636038685</v>
       </c>
       <c r="H172">
-        <v>0.1536508811792771</v>
-      </c>
-      <c r="I172">
-        <v>0.118726881541537</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.176102087869425</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1497076842623926</v>
+        <v>0.1700783302971412</v>
       </c>
       <c r="C173">
-        <v>0.1103480182447718</v>
+        <v>0.1242952088031747</v>
       </c>
       <c r="D173">
-        <v>0.1439872352849012</v>
+        <v>0.1572282289325797</v>
       </c>
       <c r="E173">
-        <v>0.1412980667096879</v>
+        <v>0.1569360441554539</v>
       </c>
       <c r="F173">
-        <v>0.1070895544839869</v>
+        <v>0.1189329410927591</v>
       </c>
       <c r="G173">
-        <v>0.1530111089165399</v>
+        <v>0.1712772279818656</v>
       </c>
       <c r="H173">
-        <v>0.08878383814251418</v>
-      </c>
-      <c r="I173">
-        <v>0.1057744939552057</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1012520187370258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1124663052200439</v>
+        <v>0.1281849832283533</v>
       </c>
       <c r="C174">
-        <v>0.1381471322265888</v>
+        <v>0.1599434276469102</v>
       </c>
       <c r="D174">
-        <v>0.115105418226518</v>
+        <v>0.1322736338772399</v>
       </c>
       <c r="E174">
-        <v>0.1083475197789788</v>
+        <v>0.1239395940146334</v>
       </c>
       <c r="F174">
-        <v>0.1178265215853481</v>
+        <v>0.1326080647650005</v>
       </c>
       <c r="G174">
-        <v>0.1161768150435673</v>
+        <v>0.133042848739283</v>
       </c>
       <c r="H174">
-        <v>0.1632096745341189</v>
-      </c>
-      <c r="I174">
-        <v>0.1287206133848362</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1900074477285795</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1382825021824389</v>
+        <v>0.1590206606263165</v>
       </c>
       <c r="C175">
-        <v>0.1256567020662802</v>
+        <v>0.1357674107027392</v>
       </c>
       <c r="D175">
-        <v>0.1476888974293316</v>
+        <v>0.1628978305194999</v>
       </c>
       <c r="E175">
-        <v>0.1306547853771423</v>
+        <v>0.1428094980183892</v>
       </c>
       <c r="F175">
-        <v>0.09520597150130201</v>
+        <v>0.1071066117238977</v>
       </c>
       <c r="G175">
-        <v>0.1549493803768587</v>
+        <v>0.1735789530611073</v>
       </c>
       <c r="H175">
-        <v>0.1058202911168934</v>
-      </c>
-      <c r="I175">
-        <v>0.1017414699497528</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1188190353480502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1070370479898745</v>
+        <v>0.1240848701468505</v>
       </c>
       <c r="C176">
-        <v>0.1255003280552128</v>
+        <v>0.1424604285836489</v>
       </c>
       <c r="D176">
-        <v>0.1244006563946198</v>
+        <v>0.1429841783143497</v>
       </c>
       <c r="E176">
-        <v>0.1256096578374883</v>
+        <v>0.1397829495399915</v>
       </c>
       <c r="F176">
-        <v>0.1319968323914804</v>
+        <v>0.1496895775586403</v>
       </c>
       <c r="G176">
-        <v>0.1170392065032123</v>
+        <v>0.1342249970280659</v>
       </c>
       <c r="H176">
-        <v>0.1462790122513475</v>
-      </c>
-      <c r="I176">
-        <v>0.1221372585767645</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1667729988284532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.09626033890680401</v>
+        <v>0.1100728699859383</v>
       </c>
       <c r="C177">
-        <v>0.1289092079314366</v>
+        <v>0.1533581731916872</v>
       </c>
       <c r="D177">
-        <v>0.1176389818738483</v>
+        <v>0.1386541018952181</v>
       </c>
       <c r="E177">
-        <v>0.123266536185788</v>
+        <v>0.1433146955028629</v>
       </c>
       <c r="F177">
-        <v>0.1170481137556278</v>
+        <v>0.1394799674871162</v>
       </c>
       <c r="G177">
-        <v>0.1072971453898454</v>
+        <v>0.1224310072386796</v>
       </c>
       <c r="H177">
-        <v>0.1676721181753117</v>
-      </c>
-      <c r="I177">
-        <v>0.1419075577813383</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.1926891846984978</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.08243052629356341</v>
+        <v>0.09215928250581747</v>
       </c>
       <c r="C178">
-        <v>0.1442786063411836</v>
+        <v>0.1679674379290207</v>
       </c>
       <c r="D178">
-        <v>0.107948773835701</v>
+        <v>0.12283772738782</v>
       </c>
       <c r="E178">
-        <v>0.1066843998525689</v>
+        <v>0.1257973759206822</v>
       </c>
       <c r="F178">
-        <v>0.1907906793956519</v>
+        <v>0.2216926835447692</v>
       </c>
       <c r="G178">
-        <v>0.08571695896561562</v>
+        <v>0.09891581551657296</v>
       </c>
       <c r="H178">
-        <v>0.1488045951946197</v>
-      </c>
-      <c r="I178">
-        <v>0.1333454601210959</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.1706296771953175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1549447804490964</v>
+        <v>0.179367810718872</v>
       </c>
       <c r="C179">
-        <v>0.1244710369393458</v>
+        <v>0.1371979034495514</v>
       </c>
       <c r="D179">
-        <v>0.1054233025762194</v>
+        <v>0.1207518680524206</v>
       </c>
       <c r="E179">
-        <v>0.1050402043563822</v>
+        <v>0.118641565589625</v>
       </c>
       <c r="F179">
-        <v>0.1307076778621761</v>
+        <v>0.1447718194869956</v>
       </c>
       <c r="G179">
-        <v>0.1572718798650805</v>
+        <v>0.1803223476998237</v>
       </c>
       <c r="H179">
-        <v>0.101242643373855</v>
-      </c>
-      <c r="I179">
-        <v>0.1208984745778446</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1189466850027116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1113970756922918</v>
+        <v>0.1271836498791808</v>
       </c>
       <c r="C180">
-        <v>0.1283375918889119</v>
+        <v>0.1487636481077611</v>
       </c>
       <c r="D180">
-        <v>0.1305623621535053</v>
+        <v>0.151388575922352</v>
       </c>
       <c r="E180">
-        <v>0.1324840539838271</v>
+        <v>0.1544646743522768</v>
       </c>
       <c r="F180">
-        <v>0.1237171619352354</v>
+        <v>0.1406964093218084</v>
       </c>
       <c r="G180">
-        <v>0.1017908574548112</v>
+        <v>0.118629776699223</v>
       </c>
       <c r="H180">
-        <v>0.1399341055782204</v>
-      </c>
-      <c r="I180">
-        <v>0.1317767913131968</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1588732657173978</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1444003023474918</v>
+        <v>0.1793502704325769</v>
       </c>
       <c r="C181">
-        <v>0.1318818503799727</v>
+        <v>0.1494641699119394</v>
       </c>
       <c r="D181">
-        <v>0.1098069306422406</v>
+        <v>0.1255419401287098</v>
       </c>
       <c r="E181">
-        <v>0.1417964871503327</v>
+        <v>0.1696804557300891</v>
       </c>
       <c r="F181">
-        <v>0.0376673004941229</v>
+        <v>0.05427422409019689</v>
       </c>
       <c r="G181">
-        <v>0.168279340592198</v>
+        <v>0.1857809905345215</v>
       </c>
       <c r="H181">
-        <v>0.1214636844770037</v>
-      </c>
-      <c r="I181">
-        <v>0.1447041039166375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.1359079491719663</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1843638647621164</v>
+        <v>0.2066365814717621</v>
       </c>
       <c r="C182">
-        <v>0.140413512399364</v>
+        <v>0.1804084889599844</v>
       </c>
       <c r="D182">
-        <v>0.06366461254544727</v>
+        <v>0.08484625245255412</v>
       </c>
       <c r="E182">
-        <v>0.07844531534389611</v>
+        <v>0.0984356551233096</v>
       </c>
       <c r="F182">
-        <v>0.05966798269232136</v>
+        <v>0.06535809761990009</v>
       </c>
       <c r="G182">
-        <v>0.1131885599339567</v>
+        <v>0.1504966315490451</v>
       </c>
       <c r="H182">
-        <v>0.1806154917805781</v>
-      </c>
-      <c r="I182">
-        <v>0.1796406605423201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.2138182928234449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1107887396371568</v>
+        <v>0.1283788745626254</v>
       </c>
       <c r="C183">
-        <v>0.1383930786659738</v>
+        <v>0.160099947095706</v>
       </c>
       <c r="D183">
-        <v>0.1050480824659614</v>
+        <v>0.1207813678320822</v>
       </c>
       <c r="E183">
-        <v>0.1166102740006928</v>
+        <v>0.1318904950311146</v>
       </c>
       <c r="F183">
-        <v>0.1241360535203167</v>
+        <v>0.1489033795385334</v>
       </c>
       <c r="G183">
-        <v>0.1387033118269758</v>
+        <v>0.1662596760398378</v>
       </c>
       <c r="H183">
-        <v>0.1232185693341028</v>
-      </c>
-      <c r="I183">
-        <v>0.1431018905488201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.1436862599001006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1553967995379756</v>
+        <v>0.1732318323024807</v>
       </c>
       <c r="C184">
-        <v>0.1218612538656594</v>
+        <v>0.1381172183115127</v>
       </c>
       <c r="D184">
-        <v>0.1214910565514105</v>
+        <v>0.1378192950705077</v>
       </c>
       <c r="E184">
-        <v>0.1132462480546916</v>
+        <v>0.1297783603301885</v>
       </c>
       <c r="F184">
-        <v>0.11686884304004</v>
+        <v>0.1323849017421224</v>
       </c>
       <c r="G184">
-        <v>0.1537120488273648</v>
+        <v>0.1729497024023533</v>
       </c>
       <c r="H184">
-        <v>0.10276592979199</v>
-      </c>
-      <c r="I184">
-        <v>0.1146578203308682</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1157186898408346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1332779176236922</v>
+        <v>0.147251994792143</v>
       </c>
       <c r="C185">
-        <v>0.09915782648615772</v>
+        <v>0.1053155808898166</v>
       </c>
       <c r="D185">
-        <v>0.1502281961504723</v>
+        <v>0.1720866044122154</v>
       </c>
       <c r="E185">
-        <v>0.159655024274688</v>
+        <v>0.1868191396119294</v>
       </c>
       <c r="F185">
-        <v>0.1095736683258558</v>
+        <v>0.1224942846048615</v>
       </c>
       <c r="G185">
-        <v>0.1420470599504129</v>
+        <v>0.1625356675137833</v>
       </c>
       <c r="H185">
-        <v>0.09463822294794394</v>
-      </c>
-      <c r="I185">
-        <v>0.1114220842407771</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.1034967281752508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.149113730029851</v>
+        <v>0.1655725210805204</v>
       </c>
       <c r="C186">
-        <v>0.1415112107459897</v>
+        <v>0.1575490542174293</v>
       </c>
       <c r="D186">
-        <v>0.1233682705255549</v>
+        <v>0.1331095762776108</v>
       </c>
       <c r="E186">
-        <v>0.1167613775606311</v>
+        <v>0.126856276297808</v>
       </c>
       <c r="F186">
-        <v>0.1235887323995784</v>
+        <v>0.1419051032116054</v>
       </c>
       <c r="G186">
-        <v>0.1740707953128409</v>
+        <v>0.193438422417742</v>
       </c>
       <c r="H186">
-        <v>0.07283397298507253</v>
-      </c>
-      <c r="I186">
-        <v>0.09875191044048137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.0815690464972841</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.13706614474955</v>
+        <v>0.1538675279273709</v>
       </c>
       <c r="C187">
-        <v>0.1233228215468345</v>
+        <v>0.1402088923739135</v>
       </c>
       <c r="D187">
-        <v>0.1243564917272284</v>
+        <v>0.1433900957753758</v>
       </c>
       <c r="E187">
-        <v>0.1299789177074942</v>
+        <v>0.1491956217435958</v>
       </c>
       <c r="F187">
-        <v>0.1113583296424399</v>
+        <v>0.1259254950106981</v>
       </c>
       <c r="G187">
-        <v>0.1423542039097606</v>
+        <v>0.1594005027313046</v>
       </c>
       <c r="H187">
-        <v>0.1111497144510647</v>
-      </c>
-      <c r="I187">
-        <v>0.1204133762656276</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1280118644377412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1455702895018794</v>
+        <v>0.1668980713548268</v>
       </c>
       <c r="C188">
-        <v>0.146580732609302</v>
+        <v>0.1677733221597032</v>
       </c>
       <c r="D188">
-        <v>0.1453867135073605</v>
+        <v>0.155669676545019</v>
       </c>
       <c r="E188">
-        <v>0.09896958237086674</v>
+        <v>0.1144847645208439</v>
       </c>
       <c r="F188">
-        <v>0.1332636052796683</v>
+        <v>0.1490033267607384</v>
       </c>
       <c r="G188">
-        <v>0.1384302515147714</v>
+        <v>0.1521500832799328</v>
       </c>
       <c r="H188">
-        <v>0.08343980217662582</v>
-      </c>
-      <c r="I188">
-        <v>0.1083590230395258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.09402075537893599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.06214861709335633</v>
+        <v>0.07551356095042353</v>
       </c>
       <c r="C189">
-        <v>0.153002360047916</v>
+        <v>0.1766401653379017</v>
       </c>
       <c r="D189">
-        <v>0.07960800650368148</v>
+        <v>0.08902402011418604</v>
       </c>
       <c r="E189">
-        <v>0.1263206230283287</v>
+        <v>0.147134104975603</v>
       </c>
       <c r="F189">
-        <v>0.2260087020639115</v>
+        <v>0.2582353137765287</v>
       </c>
       <c r="G189">
-        <v>0.07128060665909772</v>
+        <v>0.08050110955719136</v>
       </c>
       <c r="H189">
-        <v>0.1548877894788107</v>
-      </c>
-      <c r="I189">
-        <v>0.1267432951248976</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1729517252881656</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1379576373722787</v>
+        <v>0.1561382592915035</v>
       </c>
       <c r="C190">
-        <v>0.1236258214897646</v>
+        <v>0.1406935508264338</v>
       </c>
       <c r="D190">
-        <v>0.1280975707220711</v>
+        <v>0.1458287173847437</v>
       </c>
       <c r="E190">
-        <v>0.1196986333178272</v>
+        <v>0.1358767668742198</v>
       </c>
       <c r="F190">
-        <v>0.1261849697902981</v>
+        <v>0.1427405693344544</v>
       </c>
       <c r="G190">
-        <v>0.1372821236145099</v>
+        <v>0.1563470037025907</v>
       </c>
       <c r="H190">
-        <v>0.1101833241925031</v>
-      </c>
-      <c r="I190">
-        <v>0.1169699195007472</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1223751325860541</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1238551078592112</v>
+        <v>0.1367706012108867</v>
       </c>
       <c r="C191">
-        <v>0.1240670858553975</v>
+        <v>0.1435244362661101</v>
       </c>
       <c r="D191">
-        <v>0.1253245004918392</v>
+        <v>0.144622925597953</v>
       </c>
       <c r="E191">
-        <v>0.130655747529082</v>
+        <v>0.1508928508204823</v>
       </c>
       <c r="F191">
-        <v>0.1368093282939778</v>
+        <v>0.1587834779569327</v>
       </c>
       <c r="G191">
-        <v>0.1120824020424346</v>
+        <v>0.1272936387215369</v>
       </c>
       <c r="H191">
-        <v>0.1221506252720472</v>
-      </c>
-      <c r="I191">
-        <v>0.1250552026560107</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1381120694260982</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1504524505071021</v>
+        <v>0.1653945142298325</v>
       </c>
       <c r="C192">
-        <v>0.1180122235172535</v>
+        <v>0.1329037854600803</v>
       </c>
       <c r="D192">
-        <v>0.1352308063012131</v>
+        <v>0.1510344975279106</v>
       </c>
       <c r="E192">
-        <v>0.1419884305200492</v>
+        <v>0.1641419641165174</v>
       </c>
       <c r="F192">
-        <v>0.104262201926723</v>
+        <v>0.1102930718978302</v>
       </c>
       <c r="G192">
-        <v>0.139282749030041</v>
+        <v>0.1567227982271786</v>
       </c>
       <c r="H192">
-        <v>0.1070265086863006</v>
-      </c>
-      <c r="I192">
-        <v>0.1037446295113175</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1195093685406505</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1414030227185973</v>
+        <v>0.1644306141268166</v>
       </c>
       <c r="C193">
-        <v>0.1093245393987201</v>
+        <v>0.1266241814536612</v>
       </c>
       <c r="D193">
-        <v>0.15154414823274</v>
+        <v>0.16893823673202</v>
       </c>
       <c r="E193">
-        <v>0.1380061250633481</v>
+        <v>0.158380938282552</v>
       </c>
       <c r="F193">
-        <v>0.1040738646580668</v>
+        <v>0.1185463920037467</v>
       </c>
       <c r="G193">
-        <v>0.139809703943971</v>
+        <v>0.1581101951728334</v>
       </c>
       <c r="H193">
-        <v>0.09514890061635585</v>
-      </c>
-      <c r="I193">
-        <v>0.1206896953682008</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1049694422283699</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1665654783531436</v>
+        <v>0.2019703959383438</v>
       </c>
       <c r="C194">
-        <v>0.1510955666308284</v>
+        <v>0.1667740688263998</v>
       </c>
       <c r="D194">
-        <v>0.07992343108553657</v>
+        <v>0.08286808712653471</v>
       </c>
       <c r="E194">
-        <v>0.1189957863449423</v>
+        <v>0.142755300450155</v>
       </c>
       <c r="F194">
-        <v>0.0277182168036294</v>
+        <v>0.02803885707514372</v>
       </c>
       <c r="G194">
-        <v>0.1646320614715122</v>
+        <v>0.2144322081517059</v>
       </c>
       <c r="H194">
-        <v>0.1329071803658904</v>
-      </c>
-      <c r="I194">
-        <v>0.1581622789445172</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1631610824317169</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1125008500207804</v>
+        <v>0.1323884205438118</v>
       </c>
       <c r="C195">
-        <v>0.1247848846163841</v>
+        <v>0.1453629500338736</v>
       </c>
       <c r="D195">
-        <v>0.1230927370287433</v>
+        <v>0.1455804411872947</v>
       </c>
       <c r="E195">
-        <v>0.1256878730651161</v>
+        <v>0.14474412813988</v>
       </c>
       <c r="F195">
-        <v>0.1091924174557031</v>
+        <v>0.1289017310539627</v>
       </c>
       <c r="G195">
-        <v>0.1225508063706854</v>
+        <v>0.1414461881609886</v>
       </c>
       <c r="H195">
-        <v>0.142849344748817</v>
-      </c>
-      <c r="I195">
-        <v>0.1393410866937704</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.1615761408801888</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.08405433759026461</v>
+        <v>0.09370226150813592</v>
       </c>
       <c r="C196">
-        <v>0.1219178921282191</v>
+        <v>0.1320717745372616</v>
       </c>
       <c r="D196">
-        <v>0.09459501039693656</v>
+        <v>0.1065414745926563</v>
       </c>
       <c r="E196">
-        <v>0.1087274673180933</v>
+        <v>0.1235480564870623</v>
       </c>
       <c r="F196">
-        <v>0.2134789189997539</v>
+        <v>0.2475336148199371</v>
       </c>
       <c r="G196">
-        <v>0.07354182766287289</v>
+        <v>0.08349608514346603</v>
       </c>
       <c r="H196">
-        <v>0.1852622424797238</v>
-      </c>
-      <c r="I196">
-        <v>0.1184223034241358</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.2131067329114806</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1675222538920957</v>
+        <v>0.1893933224598406</v>
       </c>
       <c r="C197">
-        <v>0.1147944684747024</v>
+        <v>0.1301193746763765</v>
       </c>
       <c r="D197">
-        <v>0.1624747658328007</v>
+        <v>0.1803089731530532</v>
       </c>
       <c r="E197">
-        <v>0.1302376598158673</v>
+        <v>0.1320673057013734</v>
       </c>
       <c r="F197">
-        <v>0.1058179007377199</v>
+        <v>0.1072366554111474</v>
       </c>
       <c r="G197">
-        <v>0.1424158719640691</v>
+        <v>0.1511686932366313</v>
       </c>
       <c r="H197">
-        <v>0.1018178476377734</v>
-      </c>
-      <c r="I197">
-        <v>0.07491923164497155</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1097056753615776</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1486670103179852</v>
+        <v>0.16851439033368</v>
       </c>
       <c r="C198">
-        <v>0.1348158654954744</v>
+        <v>0.1472570013862313</v>
       </c>
       <c r="D198">
-        <v>0.1184791445506653</v>
+        <v>0.1294521600779839</v>
       </c>
       <c r="E198">
-        <v>0.1289350132643811</v>
+        <v>0.147497879052896</v>
       </c>
       <c r="F198">
-        <v>0.1115304803315003</v>
+        <v>0.1246307201358461</v>
       </c>
       <c r="G198">
-        <v>0.12621063708601</v>
+        <v>0.145135983441527</v>
       </c>
       <c r="H198">
-        <v>0.12581608075167</v>
-      </c>
-      <c r="I198">
-        <v>0.1055457682023138</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.1375118655718358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.2973578767602614</v>
+        <v>0.3540969545745417</v>
       </c>
       <c r="C199">
-        <v>0.08340163746488345</v>
+        <v>0.1033136975893979</v>
       </c>
       <c r="D199">
-        <v>0.0329377487515692</v>
+        <v>0.02848708167309459</v>
       </c>
       <c r="E199">
-        <v>0.02880567230788457</v>
+        <v>0.02106699463529575</v>
       </c>
       <c r="F199">
-        <v>0.05522874321089739</v>
+        <v>0.05274788730099199</v>
       </c>
       <c r="G199">
-        <v>0.1109902445949246</v>
+        <v>0.1458653465487692</v>
       </c>
       <c r="H199">
-        <v>0.2165345766741556</v>
-      </c>
-      <c r="I199">
-        <v>0.1747435002354237</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.2944220376779087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.07708965424170444</v>
+        <v>0.0891094127895813</v>
       </c>
       <c r="C200">
-        <v>0.1456786808992146</v>
+        <v>0.1658379623223021</v>
       </c>
       <c r="D200">
-        <v>0.1147736391316875</v>
+        <v>0.1297871832222636</v>
       </c>
       <c r="E200">
-        <v>0.1141727967519945</v>
+        <v>0.1315744350364827</v>
       </c>
       <c r="F200">
-        <v>0.1840233403265574</v>
+        <v>0.2105742577356083</v>
       </c>
       <c r="G200">
-        <v>0.09057886507355821</v>
+        <v>0.1019002612265285</v>
       </c>
       <c r="H200">
-        <v>0.1490222885961104</v>
-      </c>
-      <c r="I200">
-        <v>0.1246607349791732</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.1712164876672335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.07716196321793296</v>
+        <v>0.08360441507894727</v>
       </c>
       <c r="C201">
-        <v>0.1534919652473562</v>
+        <v>0.1643419685874786</v>
       </c>
       <c r="D201">
-        <v>0.1241155781738743</v>
+        <v>0.1442021931497383</v>
       </c>
       <c r="E201">
-        <v>0.1327528430618639</v>
+        <v>0.1524836602273778</v>
       </c>
       <c r="F201">
-        <v>0.1840115176704079</v>
+        <v>0.1995992238870665</v>
       </c>
       <c r="G201">
-        <v>0.07152985439978818</v>
+        <v>0.07960968398185921</v>
       </c>
       <c r="H201">
-        <v>0.1502368250496241</v>
-      </c>
-      <c r="I201">
-        <v>0.1066994531791526</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.1761588550875322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1200233534431184</v>
+        <v>0.1405675727605079</v>
       </c>
       <c r="C202">
-        <v>0.1269838017092149</v>
+        <v>0.1483111802712316</v>
       </c>
       <c r="D202">
-        <v>0.1282045939763743</v>
+        <v>0.1439876973226792</v>
       </c>
       <c r="E202">
-        <v>0.1212449159656724</v>
+        <v>0.1364900040856953</v>
       </c>
       <c r="F202">
-        <v>0.1219992603893062</v>
+        <v>0.1380473763987372</v>
       </c>
       <c r="G202">
-        <v>0.1081732194344571</v>
+        <v>0.1263566645181503</v>
       </c>
       <c r="H202">
-        <v>0.1434101845716677</v>
-      </c>
-      <c r="I202">
-        <v>0.1299606705101891</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.1662395046429984</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1361185815211807</v>
+        <v>0.1664928376214072</v>
       </c>
       <c r="C203">
-        <v>0.1254111231606474</v>
+        <v>0.1584687068513522</v>
       </c>
       <c r="D203">
-        <v>0.06643458823989855</v>
+        <v>0.09259080671034367</v>
       </c>
       <c r="E203">
-        <v>0.07835263772187681</v>
+        <v>0.1012120551515173</v>
       </c>
       <c r="F203">
-        <v>0.03848539021654655</v>
+        <v>0.0499338125959714</v>
       </c>
       <c r="G203">
-        <v>0.1717248737221153</v>
+        <v>0.2193077800495008</v>
       </c>
       <c r="H203">
-        <v>0.1676907146198834</v>
-      </c>
-      <c r="I203">
-        <v>0.2157820907978514</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.2119940010199075</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1516991954605248</v>
+        <v>0.2015146617365068</v>
       </c>
       <c r="C204">
-        <v>0.1138928021430658</v>
+        <v>0.1455901076988923</v>
       </c>
       <c r="D204">
-        <v>0.0615921701775439</v>
+        <v>0.07212835161021035</v>
       </c>
       <c r="E204">
-        <v>0.07396832036058969</v>
+        <v>0.0965380032395293</v>
       </c>
       <c r="F204">
-        <v>0.02882758916864493</v>
+        <v>0.03777855765900734</v>
       </c>
       <c r="G204">
-        <v>0.1779484996713145</v>
+        <v>0.2302151829034942</v>
       </c>
       <c r="H204">
-        <v>0.1687693358178262</v>
-      </c>
-      <c r="I204">
-        <v>0.2233020872004902</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.2162351351523597</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1434962703067085</v>
+        <v>0.1576507186397163</v>
       </c>
       <c r="C205">
-        <v>0.1133495525901059</v>
+        <v>0.1275710812517597</v>
       </c>
       <c r="D205">
-        <v>0.1386767485430047</v>
+        <v>0.1535817155354618</v>
       </c>
       <c r="E205">
-        <v>0.1319891653647638</v>
+        <v>0.1476421829368027</v>
       </c>
       <c r="F205">
-        <v>0.1185257344406463</v>
+        <v>0.1358773806034849</v>
       </c>
       <c r="G205">
-        <v>0.1236237448857487</v>
+        <v>0.1392237520667939</v>
       </c>
       <c r="H205">
-        <v>0.1240999432122433</v>
-      </c>
-      <c r="I205">
-        <v>0.1062388406567788</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.1384531689659806</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.07786778771137526</v>
+        <v>0.09169545427226038</v>
       </c>
       <c r="C206">
-        <v>0.1402915958885844</v>
+        <v>0.1669208589625268</v>
       </c>
       <c r="D206">
-        <v>0.1115570769921101</v>
+        <v>0.131100390532714</v>
       </c>
       <c r="E206">
-        <v>0.116842785346442</v>
+        <v>0.137484403237974</v>
       </c>
       <c r="F206">
-        <v>0.1394198891604712</v>
+        <v>0.1613122080990253</v>
       </c>
       <c r="G206">
-        <v>0.09621988465785675</v>
+        <v>0.1148361480254995</v>
       </c>
       <c r="H206">
-        <v>0.1715217726822763</v>
-      </c>
-      <c r="I206">
-        <v>0.146279207560884</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.19665053687</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1551802770103989</v>
+        <v>0.16856501102692</v>
       </c>
       <c r="C207">
-        <v>0.1057601766722908</v>
+        <v>0.1150846043213668</v>
       </c>
       <c r="D207">
-        <v>0.1336465928686696</v>
+        <v>0.1465231240455116</v>
       </c>
       <c r="E207">
-        <v>0.1661092275881004</v>
+        <v>0.1700327067603942</v>
       </c>
       <c r="F207">
-        <v>0.0987364064606637</v>
+        <v>0.1087306129025718</v>
       </c>
       <c r="G207">
-        <v>0.1508911033164619</v>
+        <v>0.1745793915274361</v>
       </c>
       <c r="H207">
-        <v>0.1018643565779944</v>
-      </c>
-      <c r="I207">
-        <v>0.08781185950542048</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.1164845494157996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.1405062867072054</v>
+        <v>0.1953727741653373</v>
       </c>
       <c r="C208">
-        <v>0.1198401240997917</v>
+        <v>0.1605863940322245</v>
       </c>
       <c r="D208">
-        <v>0.07376797572034634</v>
+        <v>0.09093296892193914</v>
       </c>
       <c r="E208">
-        <v>0.1260684248204131</v>
+        <v>0.1675197429661802</v>
       </c>
       <c r="F208">
-        <v>0.03890575301800929</v>
+        <v>0.04923403487824687</v>
       </c>
       <c r="G208">
-        <v>0.1644374130908349</v>
+        <v>0.2116756863149781</v>
       </c>
       <c r="H208">
-        <v>0.1021498679383027</v>
-      </c>
-      <c r="I208">
-        <v>0.2343241546050965</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.1246783987210937</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1440254541179376</v>
+        <v>0.1602681994925617</v>
       </c>
       <c r="C209">
-        <v>0.1177866604539394</v>
+        <v>0.1344726854138222</v>
       </c>
       <c r="D209">
-        <v>0.1332716434438986</v>
+        <v>0.1476747500203838</v>
       </c>
       <c r="E209">
-        <v>0.1367225254172977</v>
+        <v>0.1521339252845333</v>
       </c>
       <c r="F209">
-        <v>0.1179520144641263</v>
+        <v>0.1343431424353096</v>
       </c>
       <c r="G209">
-        <v>0.1278138102456097</v>
+        <v>0.1449516276464448</v>
       </c>
       <c r="H209">
-        <v>0.1099671568709298</v>
-      </c>
-      <c r="I209">
-        <v>0.1124607349862608</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.1261556697069445</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1581893270653155</v>
+        <v>0.1762647588304269</v>
       </c>
       <c r="C210">
-        <v>0.1128114038182605</v>
+        <v>0.1261643597974655</v>
       </c>
       <c r="D210">
-        <v>0.1359692466851141</v>
+        <v>0.1489062107415862</v>
       </c>
       <c r="E210">
-        <v>0.128803286640782</v>
+        <v>0.1430852074329642</v>
       </c>
       <c r="F210">
-        <v>0.1008491903340949</v>
+        <v>0.1101123673260921</v>
       </c>
       <c r="G210">
-        <v>0.1424572758400023</v>
+        <v>0.1642939162428029</v>
       </c>
       <c r="H210">
-        <v>0.1109211524048812</v>
-      </c>
-      <c r="I210">
-        <v>0.1099991172115497</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.1311731796286621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1251869433012397</v>
+        <v>0.143628377247685</v>
       </c>
       <c r="C211">
-        <v>0.1315737420394701</v>
+        <v>0.1473506685675724</v>
       </c>
       <c r="D211">
-        <v>0.1226871587307181</v>
+        <v>0.1394364375855332</v>
       </c>
       <c r="E211">
-        <v>0.1302465344531455</v>
+        <v>0.1452987900733511</v>
       </c>
       <c r="F211">
-        <v>0.1133705056507645</v>
+        <v>0.1249101481230736</v>
       </c>
       <c r="G211">
-        <v>0.1228958405054106</v>
+        <v>0.1397992355036461</v>
       </c>
       <c r="H211">
-        <v>0.1398622812651994</v>
-      </c>
-      <c r="I211">
-        <v>0.1141769940540521</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.1595763428991385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.09558342352134434</v>
+        <v>0.1077635736317186</v>
       </c>
       <c r="C212">
-        <v>0.1443799430061306</v>
+        <v>0.1634838469335505</v>
       </c>
       <c r="D212">
-        <v>0.1149894173211003</v>
+        <v>0.1358331913098995</v>
       </c>
       <c r="E212">
-        <v>0.1288359881546834</v>
+        <v>0.1494912823044842</v>
       </c>
       <c r="F212">
-        <v>0.1529485736968104</v>
+        <v>0.17846291236995</v>
       </c>
       <c r="G212">
-        <v>0.08235197566190396</v>
+        <v>0.09619718497384869</v>
       </c>
       <c r="H212">
-        <v>0.1476019850768734</v>
-      </c>
-      <c r="I212">
-        <v>0.1333086935611534</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.1687680084765485</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1020665357346829</v>
+        <v>0.116093457551155</v>
       </c>
       <c r="C213">
-        <v>0.1278331553249879</v>
+        <v>0.1483591694646239</v>
       </c>
       <c r="D213">
-        <v>0.1270590297230121</v>
+        <v>0.1468547596142986</v>
       </c>
       <c r="E213">
-        <v>0.1263008437832544</v>
+        <v>0.1426825719665296</v>
       </c>
       <c r="F213">
-        <v>0.1179885698916378</v>
+        <v>0.134266643433834</v>
       </c>
       <c r="G213">
-        <v>0.1063546328887529</v>
+        <v>0.1248155744918467</v>
       </c>
       <c r="H213">
-        <v>0.1641329193803189</v>
-      </c>
-      <c r="I213">
-        <v>0.1282643132733529</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.1869278234777122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1012773982139057</v>
+        <v>0.1130001585813026</v>
       </c>
       <c r="C214">
-        <v>0.1470409478691475</v>
+        <v>0.1620219352102065</v>
       </c>
       <c r="D214">
-        <v>0.1037826427136435</v>
+        <v>0.1196133902758776</v>
       </c>
       <c r="E214">
-        <v>0.1186648913595289</v>
+        <v>0.1367008114856462</v>
       </c>
       <c r="F214">
-        <v>0.166273571951111</v>
+        <v>0.1963488657246981</v>
       </c>
       <c r="G214">
-        <v>0.08462974350299061</v>
+        <v>0.0970983406787181</v>
       </c>
       <c r="H214">
-        <v>0.1590161205444453</v>
-      </c>
-      <c r="I214">
-        <v>0.1193146838452275</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.1752164980435507</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1327259313540994</v>
+        <v>0.1527215581528861</v>
       </c>
       <c r="C215">
-        <v>0.1186190665626204</v>
+        <v>0.1337516600334092</v>
       </c>
       <c r="D215">
-        <v>0.1219738345498549</v>
+        <v>0.1381730798621688</v>
       </c>
       <c r="E215">
-        <v>0.114369459297635</v>
+        <v>0.1269832630869381</v>
       </c>
       <c r="F215">
-        <v>0.1257715631562825</v>
+        <v>0.1390690950886081</v>
       </c>
       <c r="G215">
-        <v>0.1346690626776539</v>
+        <v>0.1564210066333877</v>
       </c>
       <c r="H215">
-        <v>0.135024570731952</v>
-      </c>
-      <c r="I215">
-        <v>0.1168465116699022</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.152880337142602</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1292912807620078</v>
+        <v>0.1476213670964531</v>
       </c>
       <c r="C216">
-        <v>0.1279539125266163</v>
+        <v>0.1449518457852107</v>
       </c>
       <c r="D216">
-        <v>0.1257518337847836</v>
+        <v>0.142525424373854</v>
       </c>
       <c r="E216">
-        <v>0.135702142667447</v>
+        <v>0.1520940763497378</v>
       </c>
       <c r="F216">
-        <v>0.1113442899870525</v>
+        <v>0.1231261495995561</v>
       </c>
       <c r="G216">
-        <v>0.1391784041778101</v>
+        <v>0.1571580404984961</v>
       </c>
       <c r="H216">
-        <v>0.1202734943616845</v>
-      </c>
-      <c r="I216">
-        <v>0.1105046417325982</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.1325230962966922</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1429568669480142</v>
+        <v>0.1629002963657673</v>
       </c>
       <c r="C217">
-        <v>0.1158467336641923</v>
+        <v>0.1308688918789064</v>
       </c>
       <c r="D217">
-        <v>0.1217763550769325</v>
+        <v>0.1371181544978175</v>
       </c>
       <c r="E217">
-        <v>0.129514695196778</v>
+        <v>0.1483185452603577</v>
       </c>
       <c r="F217">
-        <v>0.1292448409942747</v>
+        <v>0.1433650184568925</v>
       </c>
       <c r="G217">
-        <v>0.1465695585759668</v>
+        <v>0.1673739275937887</v>
       </c>
       <c r="H217">
-        <v>0.09701923080766391</v>
-      </c>
-      <c r="I217">
-        <v>0.1170717187361776</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>0.1100551659464698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.08480280682370009</v>
+        <v>0.09665905388475304</v>
       </c>
       <c r="C218">
-        <v>0.1580824968626635</v>
+        <v>0.1845897031747003</v>
       </c>
       <c r="D218">
-        <v>0.09546020119459153</v>
+        <v>0.1086598921642328</v>
       </c>
       <c r="E218">
-        <v>0.096416958216096</v>
+        <v>0.1100120303106674</v>
       </c>
       <c r="F218">
-        <v>0.1654922322171297</v>
+        <v>0.1891329715303041</v>
       </c>
       <c r="G218">
-        <v>0.08723694258348406</v>
+        <v>0.1005809326567019</v>
       </c>
       <c r="H218">
-        <v>0.1843594861898404</v>
-      </c>
-      <c r="I218">
-        <v>0.1281488759124947</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.2103654162786405</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1413270235921767</v>
+        <v>0.1614012528690733</v>
       </c>
       <c r="C219">
-        <v>0.1147248744437582</v>
+        <v>0.130335503936656</v>
       </c>
       <c r="D219">
-        <v>0.1316189171423315</v>
+        <v>0.1454472204382119</v>
       </c>
       <c r="E219">
-        <v>0.1273678595939798</v>
+        <v>0.1440375229638916</v>
       </c>
       <c r="F219">
-        <v>0.1239364421915089</v>
+        <v>0.1387287305867435</v>
       </c>
       <c r="G219">
-        <v>0.1319427968497694</v>
+        <v>0.1513813697025688</v>
       </c>
       <c r="H219">
-        <v>0.111551023405936</v>
-      </c>
-      <c r="I219">
-        <v>0.1175310627805395</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.1286683995028547</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.09185681941561702</v>
+        <v>0.1006682663440973</v>
       </c>
       <c r="C220">
-        <v>0.1621040385858699</v>
+        <v>0.1843100835863203</v>
       </c>
       <c r="D220">
-        <v>0.09867246493793368</v>
+        <v>0.1111533200014423</v>
       </c>
       <c r="E220">
-        <v>0.1039129900831716</v>
+        <v>0.1128130187657409</v>
       </c>
       <c r="F220">
-        <v>0.1956839843520993</v>
+        <v>0.220096418756502</v>
       </c>
       <c r="G220">
-        <v>0.07568310465636775</v>
+        <v>0.08460492064041442</v>
       </c>
       <c r="H220">
-        <v>0.1666943896593533</v>
-      </c>
-      <c r="I220">
-        <v>0.1053922083095874</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>0.1863539719054828</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.06897408543908003</v>
+        <v>0.07705110284592086</v>
       </c>
       <c r="C221">
-        <v>0.1306340843382773</v>
+        <v>0.1508311483446581</v>
       </c>
       <c r="D221">
-        <v>0.1183944103195646</v>
+        <v>0.1455545216439114</v>
       </c>
       <c r="E221">
-        <v>0.1041715922423653</v>
+        <v>0.1234752871539146</v>
       </c>
       <c r="F221">
-        <v>0.176966858387872</v>
+        <v>0.2039122333253513</v>
       </c>
       <c r="G221">
-        <v>0.08123273156864079</v>
+        <v>0.09232556697513929</v>
       </c>
       <c r="H221">
-        <v>0.1800181058362149</v>
-      </c>
-      <c r="I221">
-        <v>0.1396081318679852</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.2068501397111043</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1288824718866964</v>
+        <v>0.1465613711108772</v>
       </c>
       <c r="C222">
-        <v>0.1175480202948698</v>
+        <v>0.1310088770017038</v>
       </c>
       <c r="D222">
-        <v>0.1252532901511369</v>
+        <v>0.1425503251510128</v>
       </c>
       <c r="E222">
-        <v>0.1279334923821933</v>
+        <v>0.1477696026203313</v>
       </c>
       <c r="F222">
-        <v>0.120623077668404</v>
+        <v>0.1343884002760894</v>
       </c>
       <c r="G222">
-        <v>0.1534252891556575</v>
+        <v>0.1708114223208359</v>
       </c>
       <c r="H222">
-        <v>0.1110286731441666</v>
-      </c>
-      <c r="I222">
-        <v>0.1153056853168756</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>0.1269100015191496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.09687357946355525</v>
+        <v>0.1167127181230672</v>
       </c>
       <c r="C223">
-        <v>0.1251215980695901</v>
+        <v>0.1461925599614244</v>
       </c>
       <c r="D223">
-        <v>0.1381536866967968</v>
+        <v>0.1619730376445229</v>
       </c>
       <c r="E223">
-        <v>0.1324078600568505</v>
+        <v>0.1557667085868704</v>
       </c>
       <c r="F223">
-        <v>0.1335775964966612</v>
+        <v>0.1569860983822858</v>
       </c>
       <c r="G223">
-        <v>0.09589306804701793</v>
+        <v>0.1126711867921116</v>
       </c>
       <c r="H223">
-        <v>0.1302140513397551</v>
-      </c>
-      <c r="I223">
-        <v>0.1477585598297731</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>0.1496976905097175</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.08182628747544522</v>
+        <v>0.09171463188046679</v>
       </c>
       <c r="C224">
-        <v>0.1426998827609936</v>
+        <v>0.1617216467170117</v>
       </c>
       <c r="D224">
-        <v>0.1019350271796133</v>
+        <v>0.1140622340160815</v>
       </c>
       <c r="E224">
-        <v>0.12725460267452</v>
+        <v>0.1431107835043458</v>
       </c>
       <c r="F224">
-        <v>0.1859897776503417</v>
+        <v>0.2305388208140108</v>
       </c>
       <c r="G224">
-        <v>0.07130394626844506</v>
+        <v>0.08098823821517767</v>
       </c>
       <c r="H224">
-        <v>0.155867297813087</v>
-      </c>
-      <c r="I224">
-        <v>0.133123178177554</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>0.1778636448529057</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0933403165922654</v>
+        <v>0.1099159089804113</v>
       </c>
       <c r="C225">
-        <v>0.1250178765984147</v>
+        <v>0.1482416900323395</v>
       </c>
       <c r="D225">
-        <v>0.1208938013541873</v>
+        <v>0.1465332976595901</v>
       </c>
       <c r="E225">
-        <v>0.1206577237417487</v>
+        <v>0.1439037810489001</v>
       </c>
       <c r="F225">
-        <v>0.1355722111805368</v>
+        <v>0.1590177485496565</v>
       </c>
       <c r="G225">
-        <v>0.09161300856773279</v>
+        <v>0.1095401528162176</v>
       </c>
       <c r="H225">
-        <v>0.1608996460568891</v>
-      </c>
-      <c r="I225">
-        <v>0.1520054159082252</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>0.1828474209128848</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.08356056764514287</v>
+        <v>0.09949821588373217</v>
       </c>
       <c r="C226">
-        <v>0.1451207145672879</v>
+        <v>0.1699458171482202</v>
       </c>
       <c r="D226">
-        <v>0.09804485390758046</v>
+        <v>0.1129187252858738</v>
       </c>
       <c r="E226">
-        <v>0.1073527427239371</v>
+        <v>0.1232254027781078</v>
       </c>
       <c r="F226">
-        <v>0.1814149441800866</v>
+        <v>0.2094574887686865</v>
       </c>
       <c r="G226">
-        <v>0.09035507751029445</v>
+        <v>0.1045153889352502</v>
       </c>
       <c r="H226">
-        <v>0.1557185176504645</v>
-      </c>
-      <c r="I226">
-        <v>0.1384325818152061</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>0.1804389612001293</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1341381069693244</v>
+        <v>0.1523212244238727</v>
       </c>
       <c r="C227">
-        <v>0.1282615918814365</v>
+        <v>0.1466729926232742</v>
       </c>
       <c r="D227">
-        <v>0.1299402456158457</v>
+        <v>0.1469379309766281</v>
       </c>
       <c r="E227">
-        <v>0.1233712791493332</v>
+        <v>0.1426561445870674</v>
       </c>
       <c r="F227">
-        <v>0.119186079493531</v>
+        <v>0.1353623484392711</v>
       </c>
       <c r="G227">
-        <v>0.1139362550537057</v>
+        <v>0.1308430672191858</v>
       </c>
       <c r="H227">
-        <v>0.1270665166053219</v>
-      </c>
-      <c r="I227">
-        <v>0.1240999252315015</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>0.1452062917307006</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.09292406757218437</v>
+        <v>0.09833758884202717</v>
       </c>
       <c r="C228">
-        <v>0.1473903217321455</v>
+        <v>0.1660602189188261</v>
       </c>
       <c r="D228">
-        <v>0.1163435199140621</v>
+        <v>0.133149531409726</v>
       </c>
       <c r="E228">
-        <v>0.1339597554914935</v>
+        <v>0.1492813118131078</v>
       </c>
       <c r="F228">
-        <v>0.1164170495534859</v>
+        <v>0.1381298728637771</v>
       </c>
       <c r="G228">
-        <v>0.06408028307659873</v>
+        <v>0.06650307047492592</v>
       </c>
       <c r="H228">
-        <v>0.2047841449710289</v>
-      </c>
-      <c r="I228">
-        <v>0.1241008576890009</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.2485384056776098</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1629080709046937</v>
+        <v>0.1880698629180474</v>
       </c>
       <c r="C229">
-        <v>0.1115277553142507</v>
+        <v>0.1285666850653419</v>
       </c>
       <c r="D229">
-        <v>0.1172828936408093</v>
+        <v>0.1371959291060058</v>
       </c>
       <c r="E229">
-        <v>0.1207649975875935</v>
+        <v>0.1411922728357795</v>
       </c>
       <c r="F229">
-        <v>0.0971116459237238</v>
+        <v>0.1135891925261703</v>
       </c>
       <c r="G229">
-        <v>0.1384977243377365</v>
+        <v>0.1659225001968067</v>
       </c>
       <c r="H229">
-        <v>0.1056362858973805</v>
-      </c>
-      <c r="I229">
-        <v>0.1462706263938121</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.1254635573518485</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1426434755288638</v>
+        <v>0.156505378819546</v>
       </c>
       <c r="C230">
-        <v>0.1288107517324223</v>
+        <v>0.138917985038414</v>
       </c>
       <c r="D230">
-        <v>0.1175209530629233</v>
+        <v>0.1308605878810693</v>
       </c>
       <c r="E230">
-        <v>0.1384668188053228</v>
+        <v>0.1551419769273343</v>
       </c>
       <c r="F230">
-        <v>0.1172018961194038</v>
+        <v>0.1343201251899461</v>
       </c>
       <c r="G230">
-        <v>0.135465150538795</v>
+        <v>0.1522656787504468</v>
       </c>
       <c r="H230">
-        <v>0.1185176865578067</v>
-      </c>
-      <c r="I230">
-        <v>0.1013732676544625</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.1319882673932434</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.09502786210290193</v>
+        <v>0.1078069113665149</v>
       </c>
       <c r="C231">
-        <v>0.1370194225259237</v>
+        <v>0.1590892782500042</v>
       </c>
       <c r="D231">
-        <v>0.1222442129339594</v>
+        <v>0.1428635053228052</v>
       </c>
       <c r="E231">
-        <v>0.1201327251356327</v>
+        <v>0.1401225568414172</v>
       </c>
       <c r="F231">
-        <v>0.1461177880923677</v>
+        <v>0.1685727612378055</v>
       </c>
       <c r="G231">
-        <v>0.1010260300459145</v>
+        <v>0.113984768634384</v>
       </c>
       <c r="H231">
-        <v>0.147670375901394</v>
-      </c>
-      <c r="I231">
-        <v>0.130761583261906</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.1675602183470692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1058451822211922</v>
+        <v>0.124019898321988</v>
       </c>
       <c r="C232">
-        <v>0.1333693880598311</v>
+        <v>0.1534392292946994</v>
       </c>
       <c r="D232">
-        <v>0.1271647363623024</v>
+        <v>0.1466043999193443</v>
       </c>
       <c r="E232">
-        <v>0.1310746298858234</v>
+        <v>0.1522521721914977</v>
       </c>
       <c r="F232">
-        <v>0.1231095495457895</v>
+        <v>0.1400398770663604</v>
       </c>
       <c r="G232">
-        <v>0.1181184224080197</v>
+        <v>0.1356639126941608</v>
       </c>
       <c r="H232">
-        <v>0.1295598457935949</v>
-      </c>
-      <c r="I232">
-        <v>0.1317582457234469</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.1479805105119496</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.08886626995118925</v>
+        <v>0.09721167563789296</v>
       </c>
       <c r="C233">
-        <v>0.1453811827489855</v>
+        <v>0.1651637323842705</v>
       </c>
       <c r="D233">
-        <v>0.1074382199423084</v>
+        <v>0.1203412794014981</v>
       </c>
       <c r="E233">
-        <v>0.1246159129355278</v>
+        <v>0.1407501986330899</v>
       </c>
       <c r="F233">
-        <v>0.1660675509352214</v>
+        <v>0.1826226373826667</v>
       </c>
       <c r="G233">
-        <v>0.09102632582295105</v>
+        <v>0.1060471141255324</v>
       </c>
       <c r="H233">
-        <v>0.1635331060112668</v>
-      </c>
-      <c r="I233">
-        <v>0.1130714316525498</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.1878633624350494</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.07832411552473889</v>
+        <v>0.09003539756029005</v>
       </c>
       <c r="C234">
-        <v>0.1336027573739345</v>
+        <v>0.1592697588144059</v>
       </c>
       <c r="D234">
-        <v>0.1253586707752723</v>
+        <v>0.1449295943455543</v>
       </c>
       <c r="E234">
-        <v>0.1286870007475626</v>
+        <v>0.1445452930562692</v>
       </c>
       <c r="F234">
-        <v>0.1399824927841412</v>
+        <v>0.164472770843735</v>
       </c>
       <c r="G234">
-        <v>0.1089972034863912</v>
+        <v>0.1291094896017038</v>
       </c>
       <c r="H234">
-        <v>0.1515184056793282</v>
-      </c>
-      <c r="I234">
-        <v>0.1335293536286313</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>0.1676376957780417</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.132008909149593</v>
+        <v>0.153283254217468</v>
       </c>
       <c r="C235">
-        <v>0.1207364118401925</v>
+        <v>0.1389147512817336</v>
       </c>
       <c r="D235">
-        <v>0.1255097949708986</v>
+        <v>0.1416570996015427</v>
       </c>
       <c r="E235">
-        <v>0.1271539722928059</v>
+        <v>0.1460712282269268</v>
       </c>
       <c r="F235">
-        <v>0.1233244008965661</v>
+        <v>0.1394746162910774</v>
       </c>
       <c r="G235">
-        <v>0.1191080000756543</v>
+        <v>0.1379097459510053</v>
       </c>
       <c r="H235">
-        <v>0.1252595803649085</v>
-      </c>
-      <c r="I235">
-        <v>0.126898930409381</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>0.1426893044302463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1317573587569398</v>
+        <v>0.1472752911925521</v>
       </c>
       <c r="C236">
-        <v>0.1212417466392166</v>
+        <v>0.1382920322297834</v>
       </c>
       <c r="D236">
-        <v>0.1266434367350999</v>
+        <v>0.1472014922031713</v>
       </c>
       <c r="E236">
-        <v>0.1128956856305561</v>
+        <v>0.1269914322940767</v>
       </c>
       <c r="F236">
-        <v>0.129637134294669</v>
+        <v>0.1482111386226775</v>
       </c>
       <c r="G236">
-        <v>0.1316586117529588</v>
+        <v>0.1506869924942184</v>
       </c>
       <c r="H236">
-        <v>0.1279103038234664</v>
-      </c>
-      <c r="I236">
-        <v>0.1182557223670933</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>0.1413416209635206</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1053143958768212</v>
+        <v>0.1218062347377361</v>
       </c>
       <c r="C237">
-        <v>0.1505679035817214</v>
+        <v>0.1659981009426249</v>
       </c>
       <c r="D237">
-        <v>0.112658940983217</v>
+        <v>0.1273977911608133</v>
       </c>
       <c r="E237">
-        <v>0.1110308144424106</v>
+        <v>0.1249771581935268</v>
       </c>
       <c r="F237">
-        <v>0.1575896319178799</v>
+        <v>0.1814665300138033</v>
       </c>
       <c r="G237">
-        <v>0.09500992932543309</v>
+        <v>0.1100214410249587</v>
       </c>
       <c r="H237">
-        <v>0.1472428760784996</v>
-      </c>
-      <c r="I237">
-        <v>0.1205855077940172</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>0.1683327439265369</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.0891368240432515</v>
+        <v>0.1042358884493748</v>
       </c>
       <c r="C238">
-        <v>0.1527575455769753</v>
+        <v>0.179666513288729</v>
       </c>
       <c r="D238">
-        <v>0.08613414098152272</v>
+        <v>0.09813767460212323</v>
       </c>
       <c r="E238">
-        <v>0.1047141636955089</v>
+        <v>0.1165333258336974</v>
       </c>
       <c r="F238">
-        <v>0.1879873499750962</v>
+        <v>0.2152663316645452</v>
       </c>
       <c r="G238">
-        <v>0.08272585061564633</v>
+        <v>0.09466882523265559</v>
       </c>
       <c r="H238">
-        <v>0.1693117872116046</v>
-      </c>
-      <c r="I238">
-        <v>0.1272323379003943</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>0.1914914409288747</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1673574731537997</v>
+        <v>0.1989769920657691</v>
       </c>
       <c r="C239">
-        <v>0.1102813324619017</v>
+        <v>0.1234081430135363</v>
       </c>
       <c r="D239">
-        <v>0.1293091902156821</v>
+        <v>0.1470314575203074</v>
       </c>
       <c r="E239">
-        <v>0.1575253872208742</v>
+        <v>0.1806751543285084</v>
       </c>
       <c r="F239">
-        <v>0.04303621535572433</v>
+        <v>0.04989361787910997</v>
       </c>
       <c r="G239">
-        <v>0.1594461357274128</v>
+        <v>0.193469183688854</v>
       </c>
       <c r="H239">
-        <v>0.09390135723343758</v>
-      </c>
-      <c r="I239">
-        <v>0.1391429086311675</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>0.106545451503915</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1075713884283352</v>
+        <v>0.1221582308109456</v>
       </c>
       <c r="C240">
-        <v>0.1276031233492979</v>
+        <v>0.1443563586589492</v>
       </c>
       <c r="D240">
-        <v>0.1232852872078125</v>
+        <v>0.1413146058498672</v>
       </c>
       <c r="E240">
-        <v>0.1238355662715567</v>
+        <v>0.1415743766128068</v>
       </c>
       <c r="F240">
-        <v>0.1437802899160589</v>
+        <v>0.1670294342630766</v>
       </c>
       <c r="G240">
-        <v>0.1102086519467654</v>
+        <v>0.1219739330329446</v>
       </c>
       <c r="H240">
-        <v>0.1420765233040071</v>
-      </c>
-      <c r="I240">
-        <v>0.1216391695761664</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>0.1615930607714098</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1020624623893251</v>
+        <v>0.1175066381723533</v>
       </c>
       <c r="C241">
-        <v>0.1386012216412383</v>
+        <v>0.1603508363723268</v>
       </c>
       <c r="D241">
-        <v>0.1280048065594567</v>
+        <v>0.1448285465286379</v>
       </c>
       <c r="E241">
-        <v>0.1207046049670514</v>
+        <v>0.1400376776084385</v>
       </c>
       <c r="F241">
-        <v>0.1282188391180148</v>
+        <v>0.1488500731019547</v>
       </c>
       <c r="G241">
-        <v>0.09879995900402355</v>
+        <v>0.1143273479378571</v>
       </c>
       <c r="H241">
-        <v>0.1502773253935916</v>
-      </c>
-      <c r="I241">
-        <v>0.1333307809272986</v>
+        <v>0.1740988802784315</v>
       </c>
     </row>
   </sheetData>
